--- a/tagModules/TaggingRequest_2021.xlsx
+++ b/tagModules/TaggingRequest_2021.xlsx
@@ -5,29 +5,46 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xaxis\tagCalc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xaxis\tagCalc\tagModules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC651FCD-C9E3-46E2-A51F-BC35BF971E5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0776B78A-B0B1-4CDA-83B1-EADCCA62FF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concept Tagging Request " sheetId="1" r:id="rId1"/>
     <sheet name="Tagging Request" sheetId="2" r:id="rId2"/>
-    <sheet name="Sections" sheetId="4" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="3" state="hidden" r:id="rId4"/>
+    <sheet name="Funnel" sheetId="7" r:id="rId3"/>
+    <sheet name="Sections" sheetId="4" r:id="rId4"/>
+    <sheet name="Listas" sheetId="8" state="hidden" r:id="rId5"/>
   </sheets>
   <definedNames>
+    <definedName name="Registros" localSheetId="2">Funnel!$C$17</definedName>
     <definedName name="Registros">'Tagging Request'!$C$17</definedName>
+    <definedName name="SI" localSheetId="2">Funnel!$I$31</definedName>
     <definedName name="SI">'Tagging Request'!$I$31</definedName>
+    <definedName name="Última_interacción" localSheetId="2">Funnel!$C$19</definedName>
     <definedName name="Última_interacción">'Tagging Request'!$C$19</definedName>
+    <definedName name="VARIABLES" comment="Custom variables to get valuable information.">Listas!$B$3:$B$5</definedName>
+    <definedName name="Ventas" localSheetId="2">Funnel!$C$17</definedName>
     <definedName name="Ventas">'Tagging Request'!$C$17</definedName>
+    <definedName name="Viewability" localSheetId="2">Funnel!$C$17</definedName>
     <definedName name="Viewability" localSheetId="1">'Tagging Request'!$C$17</definedName>
+    <definedName name="Viewalbity" localSheetId="2">Funnel!$C$17</definedName>
     <definedName name="Viewalbity">'Tagging Request'!$C$17</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -79,6 +96,44 @@
     <author/>
   </authors>
   <commentList>
+    <comment ref="E29" authorId="0" shapeId="0" xr:uid="{24F85537-5EB7-4B74-933C-C078563A0F35}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Espacio para integrar el nombre que se le asignara a esa url en el contenedor.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G29" authorId="0" shapeId="0" xr:uid="{2180F597-1777-4CAD-9AA8-AB1DBC081B8B}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="11"/>
+            <color rgb="FF000000"/>
+            <rFont val="Calibri"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Las variables están sujetas a confirmación por parte del equipo de ops.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
     <comment ref="E29" authorId="0" shapeId="0" xr:uid="{157BCF12-8454-4792-BCC3-7E3FDE50C7B4}">
       <text>
         <r>
@@ -112,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
   <si>
     <t>Agencia</t>
   </si>
@@ -204,253 +259,7 @@
     <t>Pixel conversión</t>
   </si>
   <si>
-    <t>Branding</t>
-  </si>
-  <si>
-    <t>Clicks</t>
-  </si>
-  <si>
-    <t>Cliente no dejara insertar pixeles en el sitio</t>
-  </si>
-  <si>
-    <t>Tráfico</t>
-  </si>
-  <si>
-    <t>Ventas</t>
-  </si>
-  <si>
-    <t>Cliente concederá permisos de su GTM</t>
-  </si>
-  <si>
-    <t>E-commerce</t>
-  </si>
-  <si>
-    <t>Registros</t>
-  </si>
-  <si>
-    <t>Las páginas para el mapeo no han sido publicadas</t>
-  </si>
-  <si>
-    <t>La integración de pixeles en el sitio de cliente debe hacerse en determinadas fechas</t>
-  </si>
-  <si>
-    <t>Tráfico de calidad</t>
-  </si>
-  <si>
-    <t>Cliente entregara permisos de su contenedor</t>
-  </si>
-  <si>
-    <t>¿Otro? - Escribelo acá</t>
-  </si>
-  <si>
-    <t>Inserción directa de cliente</t>
-  </si>
-  <si>
-    <t>TIPO URL</t>
-  </si>
-  <si>
-    <t>Steps Lower Funnel</t>
-  </si>
-  <si>
-    <t>Last Interaction</t>
-  </si>
-  <si>
-    <t>tipo de contenedor implementado</t>
-  </si>
-  <si>
-    <t>Google tag manager</t>
-  </si>
-  <si>
-    <t>Thank You page</t>
-  </si>
-  <si>
-    <t>15 días</t>
-  </si>
-  <si>
-    <t>GTM + data layer</t>
-  </si>
-  <si>
-    <t>Sección</t>
-  </si>
-  <si>
-    <t>20 días</t>
-  </si>
-  <si>
-    <t>Contenedor Adobe</t>
-  </si>
-  <si>
-    <t>Home</t>
-  </si>
-  <si>
-    <t>30 días</t>
-  </si>
-  <si>
-    <t>Contenedor Tealium</t>
-  </si>
-  <si>
-    <t>Register</t>
-  </si>
-  <si>
-    <t>60 días</t>
-  </si>
-  <si>
-    <t>Contenedor Sizmek(versa tag)</t>
-  </si>
-  <si>
-    <t>Button</t>
-  </si>
-  <si>
-    <t>90 días</t>
-  </si>
-  <si>
-    <t>Other</t>
-  </si>
-  <si>
-    <t>ARG</t>
-  </si>
-  <si>
-    <t>DSP</t>
-  </si>
-  <si>
-    <t>MS</t>
-  </si>
-  <si>
-    <t>Pais</t>
-  </si>
-  <si>
-    <t>CHL</t>
-  </si>
-  <si>
-    <t>MCM</t>
-  </si>
-  <si>
-    <t>COL</t>
-  </si>
-  <si>
-    <t>TTD</t>
-  </si>
-  <si>
-    <t>MEC</t>
-  </si>
-  <si>
-    <t>MEX</t>
-  </si>
-  <si>
     <t>Taboola</t>
-  </si>
-  <si>
-    <t>WM</t>
-  </si>
-  <si>
-    <t>URY</t>
-  </si>
-  <si>
-    <t>Sonata</t>
-  </si>
-  <si>
-    <t>MIA</t>
-  </si>
-  <si>
-    <t>PER</t>
-  </si>
-  <si>
-    <t>PRI</t>
-  </si>
-  <si>
-    <t>Incrementality Study</t>
-  </si>
-  <si>
-    <t>Lift Study</t>
-  </si>
-  <si>
-    <t>tipo de condicion</t>
-  </si>
-  <si>
-    <t>variables</t>
-  </si>
-  <si>
-    <t>https://www.iamschile.com/product-category/perros/</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>https://www.iamschile.com/product-category/puppy/</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>PageView</t>
-  </si>
-  <si>
-    <t>r {referrer}</t>
-  </si>
-  <si>
-    <t>https://www.iamschile.com/product-category/adulto-perro/</t>
-  </si>
-  <si>
-    <t>ScrollDown</t>
-  </si>
-  <si>
-    <t>u {url}</t>
-  </si>
-  <si>
-    <t>https://www.iamschile.com/product-category/gatos/</t>
-  </si>
-  <si>
-    <t>Timer</t>
-  </si>
-  <si>
-    <t>p {path}</t>
-  </si>
-  <si>
-    <t>https://www.iamschile.com/product-category/perros/?customize_changeset_uuid=e293b543-6f7c-48e5-9c73-1b7792b26569&amp;customize_autosaved=on&amp;customize_messenger_channel=preview-1</t>
-  </si>
-  <si>
-    <t>ScrollDown+Timer</t>
-  </si>
-  <si>
-    <t>h {hash}</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>q {query}</t>
-  </si>
-  <si>
-    <t>FormSend</t>
-  </si>
-  <si>
-    <t>idButton</t>
-  </si>
-  <si>
-    <t>idUser</t>
-  </si>
-  <si>
-    <t>idForm</t>
-  </si>
-  <si>
-    <t>skuProduct, vlrTotalCompra</t>
-  </si>
-  <si>
-    <t>skuProduct, vlrTotalCompra, nArticles</t>
-  </si>
-  <si>
-    <t>1 Descubrimiento(Upper Funnel)</t>
-  </si>
-  <si>
-    <t>skuProduct, vlrTotalCompra,nArticles, idTransaction</t>
-  </si>
-  <si>
-    <t>2 Reconocimiento( Upper Funnel)</t>
-  </si>
-  <si>
-    <t>3 Consideracion (Middle Funnel)</t>
-  </si>
-  <si>
-    <t>4 Decision (Lower Funnel)</t>
   </si>
   <si>
     <t>Awareness</t>
@@ -464,12 +273,24 @@
   <si>
     <t>Pixel retargeting/conversión</t>
   </si>
+  <si>
+    <t>Variables</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>p</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -500,8 +321,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,12 +356,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor rgb="FF33CCCC"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -711,11 +545,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -732,24 +639,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -762,29 +695,8 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -804,14 +716,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1028,6 +940,138 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1132114</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>10885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1959080</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>115866</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CE01AC1-F4E0-4D39-8361-D77720CF1F71}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7815943" y="5312228"/>
+          <a:ext cx="7249537" cy="1476581"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1132114</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>174171</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1911448</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>28856</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7AF5B381-DA4C-4B1E-AC48-37EEA6457901}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7815943" y="6847114"/>
+          <a:ext cx="7201905" cy="2010056"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1774372</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>2338170</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>131363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F892FCF3-EA4E-4069-89F7-8630D5F47A41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2383972" y="8991600"/>
+          <a:ext cx="13060598" cy="5258534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1080,6 +1124,54 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>868320</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>140760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1717560</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>49320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 16" descr="http://xaxis.com/images/content/news/Xaxis_Logo_Pos_Vert1.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{52F382FB-7908-4F2F-AEF1-45723BE121F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1477920" y="323640"/>
+          <a:ext cx="849240" cy="1188720"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1427,8 +1519,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A18:AMJ136"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A39" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1451,1050 +1543,1050 @@
   </cols>
   <sheetData>
     <row r="18" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="B18" s="17"/>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
     </row>
     <row r="19" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
       <c r="H19" s="2"/>
     </row>
     <row r="20" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
       <c r="H20" s="2"/>
     </row>
     <row r="21" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
       <c r="H21" s="2"/>
     </row>
     <row r="22" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="15"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
       <c r="H26" s="2"/>
     </row>
     <row r="27" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="B27" s="17"/>
+      <c r="C27" s="17"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
       <c r="H27" s="2"/>
     </row>
     <row r="28" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="B28" s="17"/>
+      <c r="C28" s="17"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
       <c r="H28" s="2"/>
     </row>
     <row r="29" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
       <c r="H29" s="2"/>
     </row>
     <row r="30" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="F30" s="15"/>
-      <c r="G30" s="15"/>
+      <c r="B30" s="17"/>
+      <c r="C30" s="17"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
       <c r="H30" s="2"/>
     </row>
     <row r="31" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="F31" s="15"/>
-      <c r="G31" s="15"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
       <c r="H31" s="2"/>
     </row>
     <row r="32" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="F32" s="15"/>
-      <c r="G32" s="15"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
       <c r="H32" s="2"/>
     </row>
     <row r="33" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="F33" s="15"/>
-      <c r="G33" s="15"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
       <c r="H33" s="2"/>
     </row>
     <row r="34" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="F34" s="15"/>
-      <c r="G34" s="15"/>
+      <c r="B34" s="17"/>
+      <c r="C34" s="17"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
       <c r="H34" s="2"/>
     </row>
     <row r="35" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
       <c r="H35" s="2"/>
     </row>
     <row r="36" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="15"/>
-      <c r="G36" s="15"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="F37" s="15"/>
-      <c r="G37" s="15"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
       <c r="H37" s="2"/>
     </row>
     <row r="38" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="F38" s="15"/>
-      <c r="G38" s="15"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
       <c r="H38" s="2"/>
     </row>
     <row r="39" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="F39" s="15"/>
-      <c r="G39" s="15"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
       <c r="H39" s="2"/>
     </row>
     <row r="40" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="F40" s="15"/>
-      <c r="G40" s="15"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
       <c r="H40" s="2"/>
     </row>
     <row r="41" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="F41" s="15"/>
-      <c r="G41" s="15"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
       <c r="H41" s="2"/>
     </row>
     <row r="42" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
       <c r="H42" s="2"/>
     </row>
     <row r="43" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="F43" s="15"/>
-      <c r="G43" s="15"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
       <c r="H43" s="2"/>
     </row>
     <row r="44" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="F44" s="15"/>
-      <c r="G44" s="15"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
       <c r="H44" s="2"/>
     </row>
     <row r="45" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="F45" s="15"/>
-      <c r="G45" s="15"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
       <c r="H45" s="2"/>
     </row>
     <row r="46" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="15"/>
-      <c r="G46" s="15"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
       <c r="H46" s="2"/>
     </row>
     <row r="47" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="15"/>
-      <c r="C47" s="15"/>
-      <c r="D47" s="15"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="15"/>
-      <c r="G47" s="15"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
       <c r="H47" s="2"/>
     </row>
     <row r="48" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="15"/>
-      <c r="C48" s="15"/>
-      <c r="D48" s="15"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="15"/>
-      <c r="G48" s="15"/>
+      <c r="B48" s="17"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
       <c r="H48" s="2"/>
     </row>
     <row r="49" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B49" s="15"/>
-      <c r="C49" s="15"/>
-      <c r="D49" s="15"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="15"/>
-      <c r="G49" s="15"/>
+      <c r="B49" s="17"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
       <c r="H49" s="2"/>
     </row>
     <row r="50" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B50" s="15"/>
-      <c r="C50" s="15"/>
-      <c r="D50" s="15"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="15"/>
-      <c r="G50" s="15"/>
+      <c r="B50" s="17"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
       <c r="H50" s="2"/>
     </row>
     <row r="51" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B51" s="15"/>
-      <c r="C51" s="15"/>
-      <c r="D51" s="15"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="15"/>
-      <c r="G51" s="15"/>
+      <c r="B51" s="17"/>
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
       <c r="H51" s="2"/>
     </row>
     <row r="52" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B52" s="15"/>
-      <c r="C52" s="15"/>
-      <c r="D52" s="15"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="15"/>
-      <c r="G52" s="15"/>
+      <c r="B52" s="17"/>
+      <c r="C52" s="17"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
       <c r="H52" s="2"/>
     </row>
     <row r="53" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B53" s="15"/>
-      <c r="C53" s="15"/>
-      <c r="D53" s="15"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="15"/>
-      <c r="G53" s="15"/>
+      <c r="B53" s="17"/>
+      <c r="C53" s="17"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
       <c r="H53" s="2"/>
     </row>
     <row r="54" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
+      <c r="B54" s="17"/>
+      <c r="C54" s="17"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
       <c r="H54" s="2"/>
     </row>
     <row r="55" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
+      <c r="B55" s="17"/>
+      <c r="C55" s="17"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
       <c r="H55" s="2"/>
     </row>
     <row r="56" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
+      <c r="B56" s="17"/>
+      <c r="C56" s="17"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
       <c r="H56" s="2"/>
     </row>
     <row r="57" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
+      <c r="B57" s="17"/>
+      <c r="C57" s="17"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
       <c r="H57" s="2"/>
     </row>
     <row r="58" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
+      <c r="B58" s="17"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
       <c r="H58" s="2"/>
     </row>
     <row r="59" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B59" s="15"/>
-      <c r="C59" s="15"/>
-      <c r="D59" s="15"/>
-      <c r="E59" s="15"/>
-      <c r="F59" s="15"/>
-      <c r="G59" s="15"/>
+      <c r="B59" s="17"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
       <c r="H59" s="2"/>
     </row>
     <row r="60" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B60" s="15"/>
-      <c r="C60" s="15"/>
-      <c r="D60" s="15"/>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
+      <c r="B60" s="17"/>
+      <c r="C60" s="17"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
       <c r="H60" s="2"/>
     </row>
     <row r="61" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="15"/>
-      <c r="C61" s="15"/>
-      <c r="D61" s="15"/>
-      <c r="E61" s="15"/>
-      <c r="F61" s="15"/>
-      <c r="G61" s="15"/>
+      <c r="B61" s="17"/>
+      <c r="C61" s="17"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
       <c r="H61" s="2"/>
     </row>
     <row r="62" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="15"/>
-      <c r="C62" s="15"/>
-      <c r="D62" s="15"/>
-      <c r="E62" s="15"/>
-      <c r="F62" s="15"/>
-      <c r="G62" s="15"/>
+      <c r="B62" s="17"/>
+      <c r="C62" s="17"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
       <c r="H62" s="2"/>
     </row>
     <row r="63" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="15"/>
-      <c r="C63" s="15"/>
-      <c r="D63" s="15"/>
-      <c r="E63" s="15"/>
-      <c r="F63" s="15"/>
-      <c r="G63" s="15"/>
+      <c r="B63" s="17"/>
+      <c r="C63" s="17"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
       <c r="H63" s="2"/>
     </row>
     <row r="64" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B64" s="15"/>
-      <c r="C64" s="15"/>
-      <c r="D64" s="15"/>
-      <c r="E64" s="15"/>
-      <c r="F64" s="15"/>
-      <c r="G64" s="15"/>
+      <c r="B64" s="17"/>
+      <c r="C64" s="17"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
       <c r="H64" s="2"/>
     </row>
     <row r="65" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B65" s="15"/>
-      <c r="C65" s="15"/>
-      <c r="D65" s="15"/>
-      <c r="E65" s="15"/>
-      <c r="F65" s="15"/>
-      <c r="G65" s="15"/>
+      <c r="B65" s="17"/>
+      <c r="C65" s="17"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
       <c r="H65" s="2"/>
     </row>
     <row r="66" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B66" s="15"/>
-      <c r="C66" s="15"/>
-      <c r="D66" s="15"/>
-      <c r="E66" s="15"/>
-      <c r="F66" s="15"/>
-      <c r="G66" s="15"/>
+      <c r="B66" s="17"/>
+      <c r="C66" s="17"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
       <c r="H66" s="2"/>
     </row>
     <row r="67" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="15"/>
-      <c r="C67" s="15"/>
-      <c r="D67" s="15"/>
-      <c r="E67" s="15"/>
-      <c r="F67" s="15"/>
-      <c r="G67" s="15"/>
+      <c r="B67" s="17"/>
+      <c r="C67" s="17"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
       <c r="H67" s="2"/>
     </row>
     <row r="68" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B68" s="15"/>
-      <c r="C68" s="15"/>
-      <c r="D68" s="15"/>
-      <c r="E68" s="15"/>
-      <c r="F68" s="15"/>
-      <c r="G68" s="15"/>
+      <c r="B68" s="17"/>
+      <c r="C68" s="17"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
       <c r="H68" s="2"/>
     </row>
     <row r="69" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
-      <c r="F69" s="15"/>
-      <c r="G69" s="15"/>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
       <c r="H69" s="2"/>
     </row>
     <row r="70" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B70" s="15"/>
-      <c r="C70" s="15"/>
-      <c r="D70" s="15"/>
-      <c r="E70" s="15"/>
-      <c r="F70" s="15"/>
-      <c r="G70" s="15"/>
+      <c r="B70" s="17"/>
+      <c r="C70" s="17"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
       <c r="H70" s="2"/>
     </row>
     <row r="71" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="15"/>
-      <c r="C71" s="15"/>
-      <c r="D71" s="15"/>
-      <c r="E71" s="15"/>
-      <c r="F71" s="15"/>
-      <c r="G71" s="15"/>
+      <c r="B71" s="17"/>
+      <c r="C71" s="17"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
       <c r="H71" s="2"/>
     </row>
     <row r="72" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B72" s="15"/>
-      <c r="C72" s="15"/>
-      <c r="D72" s="15"/>
-      <c r="E72" s="15"/>
-      <c r="F72" s="15"/>
-      <c r="G72" s="15"/>
+      <c r="B72" s="17"/>
+      <c r="C72" s="17"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
       <c r="H72" s="2"/>
     </row>
     <row r="73" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B73" s="15"/>
-      <c r="C73" s="15"/>
-      <c r="D73" s="15"/>
-      <c r="E73" s="15"/>
-      <c r="F73" s="15"/>
-      <c r="G73" s="15"/>
+      <c r="B73" s="17"/>
+      <c r="C73" s="17"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
       <c r="H73" s="2"/>
     </row>
     <row r="74" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B74" s="15"/>
-      <c r="C74" s="15"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="15"/>
-      <c r="F74" s="15"/>
-      <c r="G74" s="15"/>
+      <c r="B74" s="17"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
       <c r="H74" s="2"/>
     </row>
     <row r="75" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B75" s="15"/>
-      <c r="C75" s="15"/>
-      <c r="D75" s="15"/>
-      <c r="E75" s="15"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
+      <c r="B75" s="17"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
       <c r="H75" s="2"/>
     </row>
     <row r="76" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B76" s="15"/>
-      <c r="C76" s="15"/>
-      <c r="D76" s="15"/>
-      <c r="E76" s="15"/>
-      <c r="F76" s="15"/>
-      <c r="G76" s="15"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
       <c r="H76" s="2"/>
     </row>
     <row r="77" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B77" s="15"/>
-      <c r="C77" s="15"/>
-      <c r="D77" s="15"/>
-      <c r="E77" s="15"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
       <c r="H77" s="2"/>
     </row>
     <row r="78" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B78" s="15"/>
-      <c r="C78" s="15"/>
-      <c r="D78" s="15"/>
-      <c r="E78" s="15"/>
-      <c r="F78" s="15"/>
-      <c r="G78" s="15"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
       <c r="H78" s="2"/>
     </row>
     <row r="79" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B79" s="15"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="15"/>
-      <c r="E79" s="15"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
+      <c r="B79" s="17"/>
+      <c r="C79" s="17"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
       <c r="H79" s="2"/>
     </row>
     <row r="80" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B80" s="15"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="15"/>
-      <c r="E80" s="15"/>
-      <c r="F80" s="15"/>
-      <c r="G80" s="15"/>
+      <c r="B80" s="17"/>
+      <c r="C80" s="17"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
+      <c r="F80" s="17"/>
+      <c r="G80" s="17"/>
       <c r="H80" s="2"/>
     </row>
     <row r="81" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B81" s="15"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="15"/>
-      <c r="E81" s="15"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
+      <c r="B81" s="17"/>
+      <c r="C81" s="17"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
       <c r="H81" s="2"/>
     </row>
     <row r="82" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B82" s="15"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="15"/>
-      <c r="E82" s="15"/>
-      <c r="F82" s="15"/>
-      <c r="G82" s="15"/>
+      <c r="B82" s="17"/>
+      <c r="C82" s="17"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
+      <c r="F82" s="17"/>
+      <c r="G82" s="17"/>
       <c r="H82" s="2"/>
     </row>
     <row r="83" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B83" s="15"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="15"/>
-      <c r="E83" s="15"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
+      <c r="B83" s="17"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
       <c r="H83" s="2"/>
     </row>
     <row r="84" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B84" s="15"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="15"/>
-      <c r="E84" s="15"/>
-      <c r="F84" s="15"/>
-      <c r="G84" s="15"/>
+      <c r="B84" s="17"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
       <c r="H84" s="2"/>
     </row>
     <row r="85" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B85" s="15"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="15"/>
-      <c r="E85" s="15"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
+      <c r="B85" s="17"/>
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
       <c r="H85" s="2"/>
     </row>
     <row r="86" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B86" s="15"/>
-      <c r="C86" s="15"/>
-      <c r="D86" s="15"/>
-      <c r="E86" s="15"/>
-      <c r="F86" s="15"/>
-      <c r="G86" s="15"/>
+      <c r="B86" s="17"/>
+      <c r="C86" s="17"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
+      <c r="F86" s="17"/>
+      <c r="G86" s="17"/>
       <c r="H86" s="2"/>
     </row>
     <row r="87" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B87" s="15"/>
-      <c r="C87" s="15"/>
-      <c r="D87" s="15"/>
-      <c r="E87" s="15"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
+      <c r="B87" s="17"/>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
       <c r="H87" s="2"/>
     </row>
     <row r="88" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B88" s="15"/>
-      <c r="C88" s="15"/>
-      <c r="D88" s="15"/>
-      <c r="E88" s="15"/>
-      <c r="F88" s="15"/>
-      <c r="G88" s="15"/>
+      <c r="B88" s="17"/>
+      <c r="C88" s="17"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
+      <c r="F88" s="17"/>
+      <c r="G88" s="17"/>
       <c r="H88" s="2"/>
     </row>
     <row r="89" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B89" s="15"/>
-      <c r="C89" s="15"/>
-      <c r="D89" s="15"/>
-      <c r="E89" s="15"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
+      <c r="B89" s="17"/>
+      <c r="C89" s="17"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
       <c r="H89" s="2"/>
     </row>
     <row r="90" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B90" s="15"/>
-      <c r="C90" s="15"/>
-      <c r="D90" s="15"/>
-      <c r="E90" s="15"/>
-      <c r="F90" s="15"/>
-      <c r="G90" s="15"/>
+      <c r="B90" s="17"/>
+      <c r="C90" s="17"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
+      <c r="F90" s="17"/>
+      <c r="G90" s="17"/>
       <c r="H90" s="2"/>
     </row>
     <row r="91" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B91" s="15"/>
-      <c r="C91" s="15"/>
-      <c r="D91" s="15"/>
-      <c r="E91" s="15"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
+      <c r="B91" s="17"/>
+      <c r="C91" s="17"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
       <c r="H91" s="2"/>
     </row>
     <row r="92" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
-      <c r="F92" s="15"/>
-      <c r="G92" s="15"/>
+      <c r="B92" s="17"/>
+      <c r="C92" s="17"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
+      <c r="F92" s="17"/>
+      <c r="G92" s="17"/>
       <c r="H92" s="2"/>
     </row>
     <row r="93" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B93" s="15"/>
-      <c r="C93" s="15"/>
-      <c r="D93" s="15"/>
-      <c r="E93" s="15"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
+      <c r="B93" s="17"/>
+      <c r="C93" s="17"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
       <c r="H93" s="2"/>
     </row>
     <row r="94" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B94" s="15"/>
-      <c r="C94" s="15"/>
-      <c r="D94" s="15"/>
-      <c r="E94" s="15"/>
-      <c r="F94" s="15"/>
-      <c r="G94" s="15"/>
+      <c r="B94" s="17"/>
+      <c r="C94" s="17"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
+      <c r="F94" s="17"/>
+      <c r="G94" s="17"/>
       <c r="H94" s="2"/>
     </row>
     <row r="95" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B95" s="15"/>
-      <c r="C95" s="15"/>
-      <c r="D95" s="15"/>
-      <c r="E95" s="15"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
+      <c r="B95" s="17"/>
+      <c r="C95" s="17"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
       <c r="H95" s="2"/>
     </row>
     <row r="96" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B96" s="15"/>
-      <c r="C96" s="15"/>
-      <c r="D96" s="15"/>
-      <c r="E96" s="15"/>
-      <c r="F96" s="15"/>
-      <c r="G96" s="15"/>
+      <c r="B96" s="17"/>
+      <c r="C96" s="17"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
+      <c r="F96" s="17"/>
+      <c r="G96" s="17"/>
       <c r="H96" s="2"/>
     </row>
     <row r="97" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B97" s="15"/>
-      <c r="C97" s="15"/>
-      <c r="D97" s="15"/>
-      <c r="E97" s="15"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
+      <c r="B97" s="17"/>
+      <c r="C97" s="17"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
       <c r="H97" s="2"/>
     </row>
     <row r="98" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B98" s="15"/>
-      <c r="C98" s="15"/>
-      <c r="D98" s="15"/>
-      <c r="E98" s="15"/>
-      <c r="F98" s="15"/>
-      <c r="G98" s="15"/>
+      <c r="B98" s="17"/>
+      <c r="C98" s="17"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
+      <c r="F98" s="17"/>
+      <c r="G98" s="17"/>
       <c r="H98" s="2"/>
     </row>
     <row r="99" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B99" s="15"/>
-      <c r="C99" s="15"/>
-      <c r="D99" s="15"/>
-      <c r="E99" s="15"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
+      <c r="B99" s="17"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
       <c r="H99" s="2"/>
     </row>
     <row r="100" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B100" s="15"/>
-      <c r="C100" s="15"/>
-      <c r="D100" s="15"/>
-      <c r="E100" s="15"/>
-      <c r="F100" s="15"/>
-      <c r="G100" s="15"/>
+      <c r="B100" s="17"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
       <c r="H100" s="2"/>
     </row>
     <row r="101" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B101" s="15"/>
-      <c r="C101" s="15"/>
-      <c r="D101" s="15"/>
-      <c r="E101" s="15"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
+      <c r="B101" s="17"/>
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
       <c r="H101" s="2"/>
     </row>
     <row r="102" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B102" s="15"/>
-      <c r="C102" s="15"/>
-      <c r="D102" s="15"/>
-      <c r="E102" s="15"/>
-      <c r="F102" s="15"/>
-      <c r="G102" s="15"/>
+      <c r="B102" s="17"/>
+      <c r="C102" s="17"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
+      <c r="F102" s="17"/>
+      <c r="G102" s="17"/>
       <c r="H102" s="2"/>
     </row>
     <row r="103" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="15"/>
-      <c r="C103" s="15"/>
-      <c r="D103" s="15"/>
-      <c r="E103" s="15"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
+      <c r="B103" s="17"/>
+      <c r="C103" s="17"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
       <c r="H103" s="2"/>
     </row>
     <row r="104" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B104" s="15"/>
-      <c r="C104" s="15"/>
-      <c r="D104" s="15"/>
-      <c r="E104" s="15"/>
-      <c r="F104" s="15"/>
-      <c r="G104" s="15"/>
+      <c r="B104" s="17"/>
+      <c r="C104" s="17"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
+      <c r="F104" s="17"/>
+      <c r="G104" s="17"/>
       <c r="H104" s="2"/>
     </row>
     <row r="105" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B105" s="15"/>
-      <c r="C105" s="15"/>
-      <c r="D105" s="15"/>
-      <c r="E105" s="15"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
+      <c r="B105" s="17"/>
+      <c r="C105" s="17"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
       <c r="H105" s="2"/>
     </row>
     <row r="106" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="15"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="15"/>
-      <c r="E106" s="15"/>
-      <c r="F106" s="15"/>
-      <c r="G106" s="15"/>
+      <c r="B106" s="17"/>
+      <c r="C106" s="17"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
+      <c r="F106" s="17"/>
+      <c r="G106" s="17"/>
       <c r="H106" s="2"/>
     </row>
     <row r="107" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
+      <c r="B107" s="17"/>
+      <c r="C107" s="17"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
       <c r="H107" s="2"/>
     </row>
     <row r="108" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="15"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="15"/>
-      <c r="E108" s="15"/>
-      <c r="F108" s="15"/>
-      <c r="G108" s="15"/>
+      <c r="B108" s="17"/>
+      <c r="C108" s="17"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
+      <c r="F108" s="17"/>
+      <c r="G108" s="17"/>
       <c r="H108" s="2"/>
     </row>
     <row r="109" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B109" s="15"/>
-      <c r="C109" s="15"/>
-      <c r="D109" s="15"/>
-      <c r="E109" s="15"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
+      <c r="B109" s="17"/>
+      <c r="C109" s="17"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
       <c r="H109" s="2"/>
     </row>
     <row r="110" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B110" s="15"/>
-      <c r="C110" s="15"/>
-      <c r="D110" s="15"/>
-      <c r="E110" s="15"/>
-      <c r="F110" s="15"/>
-      <c r="G110" s="15"/>
+      <c r="B110" s="17"/>
+      <c r="C110" s="17"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
+      <c r="F110" s="17"/>
+      <c r="G110" s="17"/>
       <c r="H110" s="2"/>
     </row>
     <row r="111" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B111" s="15"/>
-      <c r="C111" s="15"/>
-      <c r="D111" s="15"/>
-      <c r="E111" s="15"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
+      <c r="B111" s="17"/>
+      <c r="C111" s="17"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
       <c r="H111" s="2"/>
     </row>
     <row r="112" spans="2:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B112" s="15"/>
-      <c r="C112" s="15"/>
-      <c r="D112" s="15"/>
-      <c r="E112" s="15"/>
-      <c r="F112" s="15"/>
-      <c r="G112" s="15"/>
+      <c r="B112" s="17"/>
+      <c r="C112" s="17"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
+      <c r="F112" s="17"/>
+      <c r="G112" s="17"/>
       <c r="H112" s="2"/>
     </row>
     <row r="113" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="15"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="15"/>
-      <c r="E113" s="15"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
+      <c r="B113" s="17"/>
+      <c r="C113" s="17"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
     </row>
     <row r="114" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B114" s="15"/>
-      <c r="C114" s="15"/>
-      <c r="D114" s="15"/>
-      <c r="E114" s="15"/>
-      <c r="F114" s="15"/>
-      <c r="G114" s="15"/>
+      <c r="B114" s="17"/>
+      <c r="C114" s="17"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
+      <c r="F114" s="17"/>
+      <c r="G114" s="17"/>
     </row>
     <row r="115" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="15"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="15"/>
-      <c r="E115" s="15"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
+      <c r="B115" s="17"/>
+      <c r="C115" s="17"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
     </row>
     <row r="116" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B116" s="15"/>
-      <c r="C116" s="15"/>
-      <c r="D116" s="15"/>
-      <c r="E116" s="15"/>
-      <c r="F116" s="15"/>
-      <c r="G116" s="15"/>
+      <c r="B116" s="17"/>
+      <c r="C116" s="17"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
+      <c r="F116" s="17"/>
+      <c r="G116" s="17"/>
     </row>
     <row r="117" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B117" s="15"/>
-      <c r="C117" s="15"/>
-      <c r="D117" s="15"/>
-      <c r="E117" s="15"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
+      <c r="B117" s="17"/>
+      <c r="C117" s="17"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
     </row>
     <row r="118" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B118" s="15"/>
-      <c r="C118" s="15"/>
-      <c r="D118" s="15"/>
-      <c r="E118" s="15"/>
-      <c r="F118" s="15"/>
-      <c r="G118" s="15"/>
+      <c r="B118" s="17"/>
+      <c r="C118" s="17"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
+      <c r="F118" s="17"/>
+      <c r="G118" s="17"/>
     </row>
     <row r="119" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B119" s="15"/>
-      <c r="C119" s="15"/>
-      <c r="D119" s="15"/>
-      <c r="E119" s="15"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
+      <c r="B119" s="17"/>
+      <c r="C119" s="17"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
     </row>
     <row r="120" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B120" s="15"/>
-      <c r="C120" s="15"/>
-      <c r="D120" s="15"/>
-      <c r="E120" s="15"/>
-      <c r="F120" s="15"/>
-      <c r="G120" s="15"/>
+      <c r="B120" s="17"/>
+      <c r="C120" s="17"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
+      <c r="F120" s="17"/>
+      <c r="G120" s="17"/>
     </row>
     <row r="121" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B121" s="15"/>
-      <c r="C121" s="15"/>
-      <c r="D121" s="15"/>
-      <c r="E121" s="15"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
+      <c r="B121" s="17"/>
+      <c r="C121" s="17"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
     </row>
     <row r="122" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="15"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="15"/>
-      <c r="E122" s="15"/>
-      <c r="F122" s="15"/>
-      <c r="G122" s="15"/>
+      <c r="B122" s="17"/>
+      <c r="C122" s="17"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
+      <c r="F122" s="17"/>
+      <c r="G122" s="17"/>
     </row>
     <row r="123" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B123" s="15"/>
-      <c r="C123" s="15"/>
-      <c r="D123" s="15"/>
-      <c r="E123" s="15"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
+      <c r="B123" s="17"/>
+      <c r="C123" s="17"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
     </row>
     <row r="124" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="15"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="15"/>
-      <c r="E124" s="15"/>
-      <c r="F124" s="15"/>
-      <c r="G124" s="15"/>
+      <c r="B124" s="17"/>
+      <c r="C124" s="17"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
+      <c r="F124" s="17"/>
+      <c r="G124" s="17"/>
     </row>
     <row r="125" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B125" s="15"/>
-      <c r="C125" s="15"/>
-      <c r="D125" s="15"/>
-      <c r="E125" s="15"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
+      <c r="B125" s="17"/>
+      <c r="C125" s="17"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
     </row>
     <row r="126" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B126" s="15"/>
-      <c r="C126" s="15"/>
-      <c r="D126" s="15"/>
-      <c r="E126" s="15"/>
-      <c r="F126" s="15"/>
-      <c r="G126" s="15"/>
+      <c r="B126" s="17"/>
+      <c r="C126" s="17"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
+      <c r="F126" s="17"/>
+      <c r="G126" s="17"/>
     </row>
     <row r="127" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B127" s="15"/>
-      <c r="C127" s="15"/>
-      <c r="D127" s="15"/>
-      <c r="E127" s="15"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
+      <c r="B127" s="17"/>
+      <c r="C127" s="17"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
     </row>
     <row r="128" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B128" s="15"/>
-      <c r="C128" s="15"/>
-      <c r="D128" s="15"/>
-      <c r="E128" s="15"/>
-      <c r="F128" s="15"/>
-      <c r="G128" s="15"/>
+      <c r="B128" s="17"/>
+      <c r="C128" s="17"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
+      <c r="F128" s="17"/>
+      <c r="G128" s="17"/>
     </row>
     <row r="129" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B129" s="15"/>
-      <c r="C129" s="15"/>
-      <c r="D129" s="15"/>
-      <c r="E129" s="15"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
+      <c r="B129" s="17"/>
+      <c r="C129" s="17"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
     </row>
     <row r="130" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B130" s="15"/>
-      <c r="C130" s="15"/>
-      <c r="D130" s="15"/>
-      <c r="E130" s="15"/>
-      <c r="F130" s="15"/>
-      <c r="G130" s="15"/>
+      <c r="B130" s="17"/>
+      <c r="C130" s="17"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
+      <c r="F130" s="17"/>
+      <c r="G130" s="17"/>
     </row>
     <row r="131" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B131" s="15"/>
-      <c r="C131" s="15"/>
-      <c r="D131" s="15"/>
-      <c r="E131" s="15"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
+      <c r="B131" s="17"/>
+      <c r="C131" s="17"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
     </row>
     <row r="132" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B132" s="15"/>
-      <c r="C132" s="15"/>
-      <c r="D132" s="15"/>
-      <c r="E132" s="15"/>
-      <c r="F132" s="15"/>
-      <c r="G132" s="15"/>
+      <c r="B132" s="17"/>
+      <c r="C132" s="17"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
+      <c r="F132" s="17"/>
+      <c r="G132" s="17"/>
     </row>
     <row r="133" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B133" s="15"/>
-      <c r="C133" s="15"/>
-      <c r="D133" s="15"/>
-      <c r="E133" s="15"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
+      <c r="B133" s="17"/>
+      <c r="C133" s="17"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
     </row>
     <row r="134" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B134" s="15"/>
-      <c r="C134" s="15"/>
-      <c r="D134" s="15"/>
-      <c r="E134" s="15"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="15"/>
+      <c r="B134" s="17"/>
+      <c r="C134" s="17"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
+      <c r="F134" s="17"/>
+      <c r="G134" s="17"/>
     </row>
     <row r="135" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B135" s="15"/>
-      <c r="C135" s="15"/>
-      <c r="D135" s="15"/>
-      <c r="E135" s="15"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
+      <c r="B135" s="17"/>
+      <c r="C135" s="17"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
     </row>
     <row r="136" spans="2:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B136" s="15"/>
-      <c r="C136" s="15"/>
-      <c r="D136" s="15"/>
-      <c r="E136" s="15"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="15"/>
+      <c r="B136" s="17"/>
+      <c r="C136" s="17"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="17"/>
+      <c r="F136" s="17"/>
+      <c r="G136" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2509,10 +2601,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A11:AMI315"/>
+  <dimension ref="A11:AMI310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="G19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2619,68 +2711,68 @@
     </row>
     <row r="27" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="22"/>
+      <c r="K28" s="23"/>
     </row>
     <row r="29" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="24"/>
-      <c r="L29" s="21" t="s">
+      <c r="K29" s="22"/>
+      <c r="L29" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="O29" s="21"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="20"/>
     </row>
     <row r="30" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L30" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="M30" s="29"/>
+      <c r="L30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" s="21"/>
       <c r="N30" s="3" t="s">
         <v>28</v>
       </c>
@@ -2689,8 +2781,8 @@
       </c>
     </row>
     <row r="31" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
-        <v>113</v>
+      <c r="B31" s="24" t="s">
+        <v>31</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2701,13 +2793,13 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="36"/>
-      <c r="M31" s="37"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="19"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="17"/>
+      <c r="B32" s="25"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -2717,13 +2809,13 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="36"/>
-      <c r="M32" s="37"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="19"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
     </row>
-    <row r="33" spans="2:15" s="7" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="18"/>
+    <row r="33" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="26"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2733,14 +2825,14 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="36"/>
-      <c r="M33" s="37"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="19"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="16" t="s">
-        <v>114</v>
+      <c r="B34" s="24" t="s">
+        <v>32</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
@@ -2751,13 +2843,13 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="36"/>
-      <c r="M34" s="37"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="19"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="19"/>
+      <c r="B35" s="27"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2767,13 +2859,13 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="36"/>
-      <c r="M35" s="37"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="19"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
     </row>
-    <row r="36" spans="2:15" s="7" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="19"/>
+    <row r="36" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="27"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2783,13 +2875,13 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="36"/>
-      <c r="M36" s="37"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="19"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
     </row>
-    <row r="37" spans="2:15" s="7" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="19"/>
+    <row r="37" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="27"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -2799,13 +2891,13 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="37"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="19"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
     </row>
-    <row r="38" spans="2:15" s="7" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="19"/>
+    <row r="38" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="27"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -2815,13 +2907,15 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="36"/>
-      <c r="M38" s="37"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="19"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
     </row>
-    <row r="39" spans="2:15" s="7" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="17"/>
+    <row r="39" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="24" t="s">
+        <v>33</v>
+      </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
@@ -2831,13 +2925,13 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="36"/>
-      <c r="M39" s="37"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="19"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
     </row>
-    <row r="40" spans="2:15" s="7" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="17"/>
+    <row r="40" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="27"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2847,13 +2941,13 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="36"/>
-      <c r="M40" s="37"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="19"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
     </row>
-    <row r="41" spans="2:15" s="7" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="17"/>
+    <row r="41" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="27"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2863,13 +2957,13 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="36"/>
-      <c r="M41" s="37"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="19"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
     </row>
-    <row r="42" spans="2:15" s="7" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="18"/>
+    <row r="42" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="25"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -2879,15 +2973,13 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="36"/>
-      <c r="M42" s="37"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="19"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="16" t="s">
-        <v>115</v>
-      </c>
+      <c r="B43" s="25"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2897,99 +2989,34 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="36"/>
-      <c r="M43" s="37"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="19"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
     </row>
-    <row r="44" spans="2:15" s="7" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="19"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
-      <c r="F44" s="4"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="4"/>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="8"/>
-      <c r="M44" s="8"/>
-    </row>
-    <row r="45" spans="2:15" s="7" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="19"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
-      <c r="F45" s="4"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="4"/>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-    </row>
-    <row r="46" spans="2:15" s="7" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="17"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
-      <c r="F46" s="4"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="4"/>
-      <c r="I46" s="4"/>
-      <c r="J46" s="4"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-    </row>
-    <row r="47" spans="2:15" s="7" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="17"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
-      <c r="F47" s="4"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="4"/>
-      <c r="I47" s="4"/>
-      <c r="J47" s="4"/>
-      <c r="K47" s="4"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-    </row>
-    <row r="48" spans="2:15" s="7" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="18"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4"/>
-      <c r="F48" s="4"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="4"/>
-      <c r="I48" s="4"/>
-      <c r="J48" s="4"/>
-      <c r="K48" s="4"/>
-      <c r="L48" s="20"/>
-      <c r="M48" s="20"/>
-    </row>
-    <row r="49" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F49" s="9"/>
-    </row>
-    <row r="50" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="51" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="52" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="53" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="54" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="56" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="58" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="64" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="44" spans="2:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="2:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="65" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="66" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="67" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3236,45 +3263,43 @@
     <row r="308" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="309" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="310" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="311" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="312" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="313" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="314" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="315" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="29">
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
     <mergeCell ref="N29:O29"/>
     <mergeCell ref="L30:M30"/>
     <mergeCell ref="L35:M35"/>
     <mergeCell ref="L36:M36"/>
     <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="B34:B42"/>
-    <mergeCell ref="B43:B48"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="L48:M48"/>
   </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G31:G43" xr:uid="{159AEBD0-1FCE-4A68-92F1-36C3B0B6D6AE}">
+      <formula1>VARIABLES</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -3283,11 +3308,719 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8E1451-794D-4AAA-996A-CBECC3B02661}">
+  <dimension ref="A11:AMI310"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="42.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18" style="1" customWidth="1"/>
+    <col min="4" max="4" width="27.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="70.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="41.109375" style="1" customWidth="1"/>
+    <col min="8" max="9" width="30.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="20" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20.109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" style="1" customWidth="1"/>
+    <col min="16" max="1023" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4"/>
+    </row>
+    <row r="12" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4"/>
+    </row>
+    <row r="13" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="4"/>
+    </row>
+    <row r="14" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="2:3" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="27" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J28" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="K28" s="23"/>
+    </row>
+    <row r="29" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="D29" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="G29" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="28" t="s">
+        <v>25</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="K29" s="22"/>
+      <c r="L29" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="20"/>
+    </row>
+    <row r="30" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" s="21"/>
+      <c r="N30" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O30" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="18"/>
+      <c r="M31" s="19"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+    </row>
+    <row r="32" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="25"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="19"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+    </row>
+    <row r="33" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="26"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="18"/>
+      <c r="M33" s="19"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+    </row>
+    <row r="34" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="19"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+    </row>
+    <row r="35" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="27"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="18"/>
+      <c r="M35" s="19"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+    </row>
+    <row r="36" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="27"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+    </row>
+    <row r="37" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="27"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="18"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+    </row>
+    <row r="38" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="27"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="18"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+    </row>
+    <row r="39" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="18"/>
+      <c r="M39" s="19"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+    </row>
+    <row r="40" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="27"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="18"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+    </row>
+    <row r="41" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="27"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="18"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+    </row>
+    <row r="42" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="25"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="18"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="4"/>
+      <c r="O42" s="4"/>
+    </row>
+    <row r="43" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="25"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="4"/>
+      <c r="O43" s="4"/>
+    </row>
+    <row r="44" spans="2:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="8"/>
+    </row>
+    <row r="45" spans="2:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="2:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="2:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:15" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="51" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="52" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="53" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="54" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="55" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="56" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="57" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="58" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="59" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="60" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="61" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="62" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="63" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="64" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="65" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="66" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="67" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="68" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="69" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="70" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="71" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="72" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="73" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="74" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="75" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="76" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="77" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="78" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="79" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="80" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="81" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="82" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="83" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="84" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="85" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="86" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="87" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="88" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="89" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="90" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="91" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="92" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="93" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="94" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="95" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="96" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="97" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="98" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="99" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="100" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="101" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="102" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="103" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="104" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="105" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="106" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="107" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="108" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="109" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="110" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="111" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="112" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="113" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="114" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="115" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="116" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="117" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="118" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="119" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="120" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="121" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="122" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="123" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="124" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="125" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="126" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="127" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="128" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="129" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="130" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="131" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="132" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="133" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="134" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="135" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="136" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="137" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="138" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="139" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="141" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="142" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="143" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="144" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="145" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="146" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="147" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="148" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="149" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="150" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="151" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="152" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="153" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="154" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="155" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="156" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="157" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="158" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="159" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="160" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="161" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="162" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="163" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="164" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="165" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="166" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="167" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="168" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="169" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="170" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="171" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="172" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="173" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="174" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="175" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="176" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="177" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="178" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="179" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="180" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="181" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="182" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="183" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="184" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="185" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="186" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="187" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="188" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="189" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="190" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="191" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="192" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="193" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="194" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="195" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="196" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="197" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="198" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="199" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="200" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="201" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="202" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="203" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="204" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="205" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="206" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="207" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="208" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="209" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="210" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="211" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="212" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="213" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="214" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="215" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="216" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="217" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="218" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="219" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="220" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="221" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="222" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="223" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="224" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="225" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="226" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="227" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="228" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="229" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="230" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="231" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="232" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="233" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="234" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="235" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="236" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="237" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="238" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="239" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="240" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="241" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="242" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="243" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="244" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="245" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="246" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="247" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="248" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="249" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="250" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="251" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="252" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="253" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="254" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="255" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="256" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="257" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="258" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="259" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="260" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="261" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="262" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="263" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="264" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="265" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="266" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="267" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="268" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="269" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="270" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="271" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="272" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="273" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="274" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="275" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="276" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="277" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="278" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="279" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="280" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="281" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="282" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="283" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="284" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="285" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="286" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="287" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="288" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="289" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="290" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="291" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="292" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="293" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="294" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="295" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="296" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="297" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="298" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="299" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="300" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="301" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="302" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="303" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="304" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="305" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="306" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="307" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="308" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="309" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="310" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="29">
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G31:G43" xr:uid="{7B368695-474D-4373-B4AA-85B1667124A2}">
+      <formula1>VARIABLES</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0704531C-E89D-482F-A691-8949287AF91E}">
   <dimension ref="A11:AMI315"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="F28" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31:G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3394,68 +4127,68 @@
     </row>
     <row r="27" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="22"/>
+      <c r="K28" s="23"/>
     </row>
     <row r="29" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C29" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="D29" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="23" t="s">
+      <c r="E29" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="23" t="s">
+      <c r="F29" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="23" t="s">
+      <c r="H29" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="23" t="s">
+      <c r="I29" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="24" t="s">
+      <c r="J29" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="24"/>
-      <c r="L29" s="21" t="s">
+      <c r="K29" s="22"/>
+      <c r="L29" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="O29" s="21"/>
+      <c r="M29" s="20"/>
+      <c r="N29" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="O29" s="20"/>
     </row>
     <row r="30" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-      <c r="I30" s="23"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="28"/>
+      <c r="H30" s="28"/>
+      <c r="I30" s="28"/>
       <c r="J30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L30" s="21" t="s">
-        <v>116</v>
-      </c>
-      <c r="M30" s="29"/>
+      <c r="L30" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" s="21"/>
       <c r="N30" s="3" t="s">
         <v>28</v>
       </c>
@@ -3464,297 +4197,297 @@
       </c>
     </row>
     <row r="31" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
+      <c r="B31" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C31" s="35"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="35"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-      <c r="J31" s="26"/>
-      <c r="K31" s="26"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="31"/>
-      <c r="N31" s="26"/>
-      <c r="O31" s="26"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="35"/>
+      <c r="I31" s="35"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="35"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="35"/>
     </row>
     <row r="32" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="25"/>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="27"/>
-      <c r="L32" s="32"/>
-      <c r="M32" s="33"/>
-      <c r="N32" s="38"/>
-      <c r="O32" s="27"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="36"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="31"/>
+      <c r="M32" s="32"/>
+      <c r="N32" s="36"/>
+      <c r="O32" s="38"/>
     </row>
     <row r="33" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="25"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="27"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="27"/>
-      <c r="L33" s="32"/>
-      <c r="M33" s="33"/>
-      <c r="N33" s="38"/>
-      <c r="O33" s="27"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="36"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="31"/>
+      <c r="M33" s="32"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="38"/>
     </row>
     <row r="34" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="25"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="27"/>
-      <c r="E34" s="27"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="27"/>
-      <c r="H34" s="27"/>
-      <c r="I34" s="27"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="27"/>
-      <c r="L34" s="32"/>
-      <c r="M34" s="33"/>
-      <c r="N34" s="38"/>
-      <c r="O34" s="27"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="36"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="31"/>
+      <c r="M34" s="32"/>
+      <c r="N34" s="36"/>
+      <c r="O34" s="38"/>
     </row>
     <row r="35" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="25"/>
-      <c r="C35" s="27"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="27"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="27"/>
-      <c r="L35" s="32"/>
-      <c r="M35" s="33"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="27"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="36"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="31"/>
+      <c r="M35" s="32"/>
+      <c r="N35" s="36"/>
+      <c r="O35" s="38"/>
     </row>
     <row r="36" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="25"/>
-      <c r="C36" s="27"/>
-      <c r="D36" s="27"/>
-      <c r="E36" s="27"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="27"/>
-      <c r="L36" s="32"/>
-      <c r="M36" s="33"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="27"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="36"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="31"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="38"/>
     </row>
     <row r="37" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="25"/>
-      <c r="C37" s="27"/>
-      <c r="D37" s="27"/>
-      <c r="E37" s="27"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="27"/>
-      <c r="H37" s="27"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="32"/>
-      <c r="M37" s="33"/>
-      <c r="N37" s="38"/>
-      <c r="O37" s="27"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="36"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="36"/>
+      <c r="O37" s="38"/>
     </row>
     <row r="38" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="25"/>
-      <c r="C38" s="27"/>
-      <c r="D38" s="27"/>
-      <c r="E38" s="27"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="27"/>
-      <c r="H38" s="27"/>
-      <c r="I38" s="27"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="27"/>
-      <c r="L38" s="32"/>
-      <c r="M38" s="33"/>
-      <c r="N38" s="38"/>
-      <c r="O38" s="27"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="36"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="31"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="36"/>
+      <c r="O38" s="38"/>
     </row>
     <row r="39" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="25"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="27"/>
-      <c r="H39" s="27"/>
-      <c r="I39" s="27"/>
-      <c r="J39" s="38"/>
-      <c r="K39" s="27"/>
-      <c r="L39" s="32"/>
-      <c r="M39" s="33"/>
-      <c r="N39" s="38"/>
-      <c r="O39" s="27"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="36"/>
+      <c r="K39" s="38"/>
+      <c r="L39" s="31"/>
+      <c r="M39" s="32"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="38"/>
     </row>
     <row r="40" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="25"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="27"/>
-      <c r="H40" s="27"/>
-      <c r="I40" s="27"/>
-      <c r="J40" s="38"/>
-      <c r="K40" s="27"/>
-      <c r="L40" s="32"/>
-      <c r="M40" s="33"/>
-      <c r="N40" s="38"/>
-      <c r="O40" s="27"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="36"/>
+      <c r="K40" s="38"/>
+      <c r="L40" s="31"/>
+      <c r="M40" s="32"/>
+      <c r="N40" s="36"/>
+      <c r="O40" s="38"/>
     </row>
     <row r="41" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="25"/>
-      <c r="C41" s="27"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="38"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="27"/>
-      <c r="H41" s="27"/>
-      <c r="I41" s="27"/>
-      <c r="J41" s="38"/>
-      <c r="K41" s="27"/>
-      <c r="L41" s="32"/>
-      <c r="M41" s="33"/>
-      <c r="N41" s="38"/>
-      <c r="O41" s="27"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="36"/>
+      <c r="K41" s="38"/>
+      <c r="L41" s="31"/>
+      <c r="M41" s="32"/>
+      <c r="N41" s="36"/>
+      <c r="O41" s="38"/>
     </row>
     <row r="42" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="25"/>
-      <c r="C42" s="27"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="38"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="27"/>
-      <c r="H42" s="27"/>
-      <c r="I42" s="27"/>
-      <c r="J42" s="38"/>
-      <c r="K42" s="27"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="33"/>
-      <c r="N42" s="38"/>
-      <c r="O42" s="27"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="36"/>
+      <c r="K42" s="38"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="32"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="38"/>
     </row>
     <row r="43" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="25"/>
-      <c r="C43" s="27"/>
-      <c r="D43" s="27"/>
-      <c r="E43" s="27"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="27"/>
-      <c r="H43" s="27"/>
-      <c r="I43" s="27"/>
-      <c r="J43" s="38"/>
-      <c r="K43" s="27"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="33"/>
-      <c r="N43" s="38"/>
-      <c r="O43" s="27"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="36"/>
+      <c r="K43" s="38"/>
+      <c r="L43" s="31"/>
+      <c r="M43" s="32"/>
+      <c r="N43" s="36"/>
+      <c r="O43" s="38"/>
     </row>
     <row r="44" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="25"/>
-      <c r="C44" s="27"/>
-      <c r="D44" s="27"/>
-      <c r="E44" s="27"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="27"/>
-      <c r="H44" s="27"/>
-      <c r="I44" s="27"/>
-      <c r="J44" s="38"/>
-      <c r="K44" s="27"/>
-      <c r="L44" s="32"/>
-      <c r="M44" s="33"/>
-      <c r="N44" s="38"/>
-      <c r="O44" s="27"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="36"/>
+      <c r="K44" s="38"/>
+      <c r="L44" s="31"/>
+      <c r="M44" s="32"/>
+      <c r="N44" s="36"/>
+      <c r="O44" s="38"/>
     </row>
     <row r="45" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="25"/>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="38"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="32"/>
-      <c r="M45" s="33"/>
-      <c r="N45" s="38"/>
-      <c r="O45" s="27"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="36"/>
+      <c r="K45" s="38"/>
+      <c r="L45" s="31"/>
+      <c r="M45" s="32"/>
+      <c r="N45" s="36"/>
+      <c r="O45" s="38"/>
     </row>
     <row r="46" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="25"/>
-      <c r="C46" s="27"/>
-      <c r="D46" s="27"/>
-      <c r="E46" s="27"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="27"/>
-      <c r="H46" s="27"/>
-      <c r="I46" s="27"/>
-      <c r="J46" s="38"/>
-      <c r="K46" s="27"/>
-      <c r="L46" s="32"/>
-      <c r="M46" s="33"/>
-      <c r="N46" s="38"/>
-      <c r="O46" s="27"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="36"/>
+      <c r="K46" s="38"/>
+      <c r="L46" s="31"/>
+      <c r="M46" s="32"/>
+      <c r="N46" s="36"/>
+      <c r="O46" s="38"/>
     </row>
     <row r="47" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="25"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
+      <c r="B47" s="40"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38"/>
+      <c r="E47" s="38"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="27"/>
-      <c r="H47" s="27"/>
-      <c r="I47" s="27"/>
-      <c r="J47" s="38"/>
-      <c r="K47" s="27"/>
-      <c r="L47" s="32"/>
-      <c r="M47" s="33"/>
-      <c r="N47" s="38"/>
-      <c r="O47" s="27"/>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="36"/>
+      <c r="K47" s="38"/>
+      <c r="L47" s="31"/>
+      <c r="M47" s="32"/>
+      <c r="N47" s="36"/>
+      <c r="O47" s="38"/>
     </row>
     <row r="48" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="25"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="28"/>
-      <c r="L48" s="34"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="39"/>
-      <c r="O48" s="28"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="39"/>
+      <c r="L48" s="33"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="39"/>
     </row>
     <row r="49" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F49" s="9"/>
+      <c r="F49" s="8"/>
     </row>
     <row r="50" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="51" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4024,11 +4757,16 @@
     <row r="315" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M48"/>
-    <mergeCell ref="N31:N48"/>
-    <mergeCell ref="O31:O48"/>
+    <mergeCell ref="B31:B48"/>
+    <mergeCell ref="C31:C48"/>
+    <mergeCell ref="D31:D48"/>
+    <mergeCell ref="E31:E48"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="G31:G48"/>
+    <mergeCell ref="I31:I48"/>
+    <mergeCell ref="J31:J48"/>
+    <mergeCell ref="K31:K48"/>
+    <mergeCell ref="H31:H48"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
@@ -4039,16 +4777,11 @@
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="B31:B48"/>
-    <mergeCell ref="C31:C48"/>
-    <mergeCell ref="D31:D48"/>
-    <mergeCell ref="E31:E48"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="G31:G48"/>
-    <mergeCell ref="I31:I48"/>
-    <mergeCell ref="J31:J48"/>
-    <mergeCell ref="K31:K48"/>
-    <mergeCell ref="H31:H48"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M48"/>
+    <mergeCell ref="N31:N48"/>
+    <mergeCell ref="O31:O48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4057,470 +4790,1723 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <sheetPr codeName="Hoja3"/>
-  <dimension ref="C3:L46"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C476D17-5786-4464-A0F3-8A2E9CCCA677}">
+  <dimension ref="A1:CD558"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="32" style="10" customWidth="1"/>
-    <col min="4" max="4" width="26.33203125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="23.33203125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="19.109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="14.44140625" style="10" customWidth="1"/>
-    <col min="10" max="10" width="47.33203125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="11"/>
+    <col min="2" max="2" width="12.77734375" style="9" customWidth="1"/>
+    <col min="21" max="82" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
-    <row r="3" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="12"/>
-      <c r="D5" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12" t="s">
+    <row r="1" spans="2:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="12"/>
+    </row>
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="B2" s="14" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="6" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="12"/>
-      <c r="D6" s="13" t="s">
+      <c r="C2" s="13"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+      <c r="T2" s="10"/>
+    </row>
+    <row r="3" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="13" t="s">
+    </row>
+    <row r="4" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12" t="s">
+    </row>
+    <row r="5" spans="2:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="16" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="12"/>
-      <c r="D7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="12"/>
-      <c r="G7" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D9" s="11"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D10" s="11"/>
-      <c r="G10" s="11"/>
-    </row>
-    <row r="11" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="K11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="L11" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="12"/>
-      <c r="D12" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="12"/>
-      <c r="D13" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="12"/>
-      <c r="D14" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L14" s="12" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="15" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="12"/>
-      <c r="D15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="3:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="12"/>
-      <c r="D16" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="12"/>
-      <c r="D17" s="13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="11"/>
-    </row>
-    <row r="19" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="11"/>
-    </row>
-    <row r="20" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="11"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="21" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="F21" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="G21" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="H21" s="12"/>
-      <c r="I21" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="12"/>
-      <c r="D22" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C23" s="12"/>
-      <c r="D23" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H23" s="12"/>
-      <c r="I23" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="12"/>
-      <c r="D24" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="H24" s="12"/>
-      <c r="I24" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="F25" s="12"/>
-      <c r="G25" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D26" s="11"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="12"/>
-    </row>
-    <row r="27" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="H27" s="12"/>
-    </row>
-    <row r="28" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="12"/>
-      <c r="D28" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="29" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="12"/>
-      <c r="D29" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="31" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C31" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="H31" s="10" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G32" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="G34" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C36" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="E36" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C37" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C38" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C39" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E40" s="10" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E41" s="10" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="42" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="E42" s="10" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="43" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C43" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="45" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C45" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="46" spans="3:8" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C46" s="10" t="s">
-        <v>112</v>
-      </c>
+    <row r="6" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="12"/>
+    </row>
+    <row r="7" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="12"/>
+    </row>
+    <row r="8" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="12"/>
+    </row>
+    <row r="9" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="12"/>
+    </row>
+    <row r="10" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="12"/>
+    </row>
+    <row r="11" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="12"/>
+    </row>
+    <row r="12" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="12"/>
+    </row>
+    <row r="13" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
+    </row>
+    <row r="14" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="12"/>
+    </row>
+    <row r="15" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="12"/>
+    </row>
+    <row r="16" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="12"/>
+    </row>
+    <row r="17" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="12"/>
+    </row>
+    <row r="18" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="12"/>
+    </row>
+    <row r="19" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="12"/>
+    </row>
+    <row r="20" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="12"/>
+    </row>
+    <row r="21" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="12"/>
+    </row>
+    <row r="22" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="12"/>
+    </row>
+    <row r="23" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="12"/>
+    </row>
+    <row r="24" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="12"/>
+    </row>
+    <row r="25" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="12"/>
+    </row>
+    <row r="26" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="12"/>
+    </row>
+    <row r="27" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="12"/>
+    </row>
+    <row r="28" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="12"/>
+    </row>
+    <row r="29" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="12"/>
+    </row>
+    <row r="30" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="12"/>
+    </row>
+    <row r="31" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="12"/>
+    </row>
+    <row r="32" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="12"/>
+    </row>
+    <row r="33" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="12"/>
+    </row>
+    <row r="34" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="12"/>
+    </row>
+    <row r="35" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="12"/>
+    </row>
+    <row r="36" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="12"/>
+    </row>
+    <row r="37" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="12"/>
+    </row>
+    <row r="38" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B38" s="12"/>
+    </row>
+    <row r="39" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="12"/>
+    </row>
+    <row r="40" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B40" s="12"/>
+    </row>
+    <row r="41" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B41" s="12"/>
+    </row>
+    <row r="42" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B42" s="12"/>
+    </row>
+    <row r="43" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B43" s="12"/>
+    </row>
+    <row r="44" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="12"/>
+    </row>
+    <row r="45" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="12"/>
+    </row>
+    <row r="46" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B46" s="12"/>
+    </row>
+    <row r="47" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B47" s="12"/>
+    </row>
+    <row r="48" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B48" s="12"/>
+    </row>
+    <row r="49" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B49" s="12"/>
+    </row>
+    <row r="50" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B50" s="12"/>
+    </row>
+    <row r="51" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B51" s="12"/>
+    </row>
+    <row r="52" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="12"/>
+    </row>
+    <row r="53" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="12"/>
+    </row>
+    <row r="54" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B54" s="12"/>
+    </row>
+    <row r="55" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B55" s="12"/>
+    </row>
+    <row r="56" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B56" s="12"/>
+    </row>
+    <row r="57" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B57" s="12"/>
+    </row>
+    <row r="58" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B58" s="12"/>
+    </row>
+    <row r="59" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B59" s="12"/>
+    </row>
+    <row r="60" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B60" s="12"/>
+    </row>
+    <row r="61" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="12"/>
+    </row>
+    <row r="62" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B62" s="12"/>
+    </row>
+    <row r="63" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B63" s="12"/>
+    </row>
+    <row r="64" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B64" s="12"/>
+    </row>
+    <row r="65" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B65" s="12"/>
+    </row>
+    <row r="66" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B66" s="12"/>
+    </row>
+    <row r="67" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B67" s="12"/>
+    </row>
+    <row r="68" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B68" s="12"/>
+    </row>
+    <row r="69" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="12"/>
+    </row>
+    <row r="70" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="12"/>
+    </row>
+    <row r="71" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="12"/>
+    </row>
+    <row r="72" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="12"/>
+    </row>
+    <row r="73" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B73" s="12"/>
+    </row>
+    <row r="74" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B74" s="12"/>
+    </row>
+    <row r="75" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B75" s="12"/>
+    </row>
+    <row r="76" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B76" s="12"/>
+    </row>
+    <row r="77" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B77" s="12"/>
+    </row>
+    <row r="78" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B78" s="12"/>
+    </row>
+    <row r="79" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B79" s="12"/>
+    </row>
+    <row r="80" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B80" s="12"/>
+    </row>
+    <row r="81" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B81" s="12"/>
+    </row>
+    <row r="82" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="12"/>
+    </row>
+    <row r="83" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B83" s="12"/>
+    </row>
+    <row r="84" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B84" s="12"/>
+    </row>
+    <row r="85" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B85" s="12"/>
+    </row>
+    <row r="86" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B86" s="12"/>
+    </row>
+    <row r="87" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B87" s="12"/>
+    </row>
+    <row r="88" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B88" s="12"/>
+    </row>
+    <row r="89" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B89" s="12"/>
+    </row>
+    <row r="90" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B90" s="12"/>
+    </row>
+    <row r="91" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B91" s="12"/>
+    </row>
+    <row r="92" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B92" s="12"/>
+    </row>
+    <row r="93" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="12"/>
+    </row>
+    <row r="94" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B94" s="12"/>
+    </row>
+    <row r="95" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B95" s="12"/>
+    </row>
+    <row r="96" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B96" s="12"/>
+    </row>
+    <row r="97" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B97" s="12"/>
+    </row>
+    <row r="98" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B98" s="12"/>
+    </row>
+    <row r="99" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B99" s="12"/>
+    </row>
+    <row r="100" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B100" s="12"/>
+    </row>
+    <row r="101" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B101" s="12"/>
+    </row>
+    <row r="102" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B102" s="12"/>
+    </row>
+    <row r="103" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B103" s="12"/>
+    </row>
+    <row r="104" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B104" s="12"/>
+    </row>
+    <row r="105" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B105" s="12"/>
+    </row>
+    <row r="106" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="12"/>
+    </row>
+    <row r="107" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="12"/>
+    </row>
+    <row r="108" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="12"/>
+    </row>
+    <row r="109" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B109" s="12"/>
+    </row>
+    <row r="110" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B110" s="12"/>
+    </row>
+    <row r="111" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B111" s="12"/>
+    </row>
+    <row r="112" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B112" s="12"/>
+    </row>
+    <row r="113" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="12"/>
+    </row>
+    <row r="114" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B114" s="12"/>
+    </row>
+    <row r="115" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="12"/>
+    </row>
+    <row r="116" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="12"/>
+    </row>
+    <row r="117" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B117" s="12"/>
+    </row>
+    <row r="118" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B118" s="12"/>
+    </row>
+    <row r="119" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B119" s="12"/>
+    </row>
+    <row r="120" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B120" s="12"/>
+    </row>
+    <row r="121" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B121" s="12"/>
+    </row>
+    <row r="122" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="12"/>
+    </row>
+    <row r="123" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="12"/>
+    </row>
+    <row r="124" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="12"/>
+    </row>
+    <row r="125" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B125" s="12"/>
+    </row>
+    <row r="126" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B126" s="12"/>
+    </row>
+    <row r="127" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B127" s="12"/>
+    </row>
+    <row r="128" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B128" s="12"/>
+    </row>
+    <row r="129" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B129" s="12"/>
+    </row>
+    <row r="130" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B130" s="12"/>
+    </row>
+    <row r="131" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B131" s="12"/>
+    </row>
+    <row r="132" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B132" s="12"/>
+    </row>
+    <row r="133" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="12"/>
+    </row>
+    <row r="134" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B134" s="12"/>
+    </row>
+    <row r="135" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B135" s="12"/>
+    </row>
+    <row r="136" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B136" s="12"/>
+    </row>
+    <row r="137" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B137" s="12"/>
+    </row>
+    <row r="138" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B138" s="12"/>
+    </row>
+    <row r="139" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B139" s="12"/>
+    </row>
+    <row r="140" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B140" s="12"/>
+    </row>
+    <row r="141" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B141" s="12"/>
+    </row>
+    <row r="142" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B142" s="12"/>
+    </row>
+    <row r="143" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B143" s="12"/>
+    </row>
+    <row r="144" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B144" s="12"/>
+    </row>
+    <row r="145" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B145" s="12"/>
+    </row>
+    <row r="146" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B146" s="12"/>
+    </row>
+    <row r="147" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B147" s="12"/>
+    </row>
+    <row r="148" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B148" s="12"/>
+    </row>
+    <row r="149" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B149" s="12"/>
+    </row>
+    <row r="150" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B150" s="12"/>
+    </row>
+    <row r="151" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B151" s="12"/>
+    </row>
+    <row r="152" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B152" s="12"/>
+    </row>
+    <row r="153" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B153" s="12"/>
+    </row>
+    <row r="154" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B154" s="12"/>
+    </row>
+    <row r="155" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B155" s="12"/>
+    </row>
+    <row r="156" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B156" s="12"/>
+    </row>
+    <row r="157" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B157" s="12"/>
+    </row>
+    <row r="158" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B158" s="12"/>
+    </row>
+    <row r="159" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B159" s="12"/>
+    </row>
+    <row r="160" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B160" s="12"/>
+    </row>
+    <row r="161" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B161" s="12"/>
+    </row>
+    <row r="162" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B162" s="12"/>
+    </row>
+    <row r="163" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B163" s="12"/>
+    </row>
+    <row r="164" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B164" s="12"/>
+    </row>
+    <row r="165" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B165" s="12"/>
+    </row>
+    <row r="166" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B166" s="12"/>
+    </row>
+    <row r="167" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B167" s="12"/>
+    </row>
+    <row r="168" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B168" s="12"/>
+    </row>
+    <row r="169" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B169" s="12"/>
+    </row>
+    <row r="170" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B170" s="12"/>
+    </row>
+    <row r="171" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B171" s="12"/>
+    </row>
+    <row r="172" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B172" s="12"/>
+    </row>
+    <row r="173" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B173" s="12"/>
+    </row>
+    <row r="174" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B174" s="12"/>
+    </row>
+    <row r="175" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B175" s="12"/>
+    </row>
+    <row r="176" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B176" s="12"/>
+    </row>
+    <row r="177" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B177" s="12"/>
+    </row>
+    <row r="178" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B178" s="12"/>
+    </row>
+    <row r="179" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B179" s="12"/>
+    </row>
+    <row r="180" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B180" s="12"/>
+    </row>
+    <row r="181" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B181" s="12"/>
+    </row>
+    <row r="182" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B182" s="12"/>
+    </row>
+    <row r="183" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B183" s="12"/>
+    </row>
+    <row r="184" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B184" s="12"/>
+    </row>
+    <row r="185" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B185" s="12"/>
+    </row>
+    <row r="186" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B186" s="12"/>
+    </row>
+    <row r="187" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B187" s="12"/>
+    </row>
+    <row r="188" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B188" s="12"/>
+    </row>
+    <row r="189" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B189" s="12"/>
+    </row>
+    <row r="190" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B190" s="12"/>
+    </row>
+    <row r="191" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B191" s="12"/>
+    </row>
+    <row r="192" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B192" s="12"/>
+    </row>
+    <row r="193" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B193" s="12"/>
+    </row>
+    <row r="194" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B194" s="12"/>
+    </row>
+    <row r="195" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B195" s="12"/>
+    </row>
+    <row r="196" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B196" s="12"/>
+    </row>
+    <row r="197" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B197" s="12"/>
+    </row>
+    <row r="198" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B198" s="12"/>
+    </row>
+    <row r="199" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B199" s="12"/>
+    </row>
+    <row r="200" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B200" s="12"/>
+    </row>
+    <row r="201" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B201" s="12"/>
+    </row>
+    <row r="202" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B202" s="12"/>
+    </row>
+    <row r="203" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B203" s="12"/>
+    </row>
+    <row r="204" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B204" s="12"/>
+    </row>
+    <row r="205" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B205" s="12"/>
+    </row>
+    <row r="206" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B206" s="12"/>
+    </row>
+    <row r="207" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B207" s="12"/>
+    </row>
+    <row r="208" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B208" s="12"/>
+    </row>
+    <row r="209" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B209" s="12"/>
+    </row>
+    <row r="210" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B210" s="12"/>
+    </row>
+    <row r="211" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B211" s="12"/>
+    </row>
+    <row r="212" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B212" s="12"/>
+    </row>
+    <row r="213" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B213" s="12"/>
+    </row>
+    <row r="214" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B214" s="12"/>
+    </row>
+    <row r="215" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B215" s="12"/>
+    </row>
+    <row r="216" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B216" s="12"/>
+    </row>
+    <row r="217" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B217" s="12"/>
+    </row>
+    <row r="218" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B218" s="12"/>
+    </row>
+    <row r="219" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B219" s="12"/>
+    </row>
+    <row r="220" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B220" s="12"/>
+    </row>
+    <row r="221" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B221" s="12"/>
+    </row>
+    <row r="222" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B222" s="12"/>
+    </row>
+    <row r="223" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B223" s="12"/>
+    </row>
+    <row r="224" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B224" s="12"/>
+    </row>
+    <row r="225" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B225" s="12"/>
+    </row>
+    <row r="226" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B226" s="12"/>
+    </row>
+    <row r="227" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B227" s="12"/>
+    </row>
+    <row r="228" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B228" s="12"/>
+    </row>
+    <row r="229" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B229" s="12"/>
+    </row>
+    <row r="230" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B230" s="12"/>
+    </row>
+    <row r="231" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B231" s="12"/>
+    </row>
+    <row r="232" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B232" s="12"/>
+    </row>
+    <row r="233" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B233" s="12"/>
+    </row>
+    <row r="234" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B234" s="12"/>
+    </row>
+    <row r="235" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B235" s="12"/>
+    </row>
+    <row r="236" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B236" s="12"/>
+    </row>
+    <row r="237" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B237" s="12"/>
+    </row>
+    <row r="238" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B238" s="12"/>
+    </row>
+    <row r="239" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B239" s="12"/>
+    </row>
+    <row r="240" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B240" s="12"/>
+    </row>
+    <row r="241" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B241" s="12"/>
+    </row>
+    <row r="242" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B242" s="12"/>
+    </row>
+    <row r="243" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B243" s="12"/>
+    </row>
+    <row r="244" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B244" s="12"/>
+    </row>
+    <row r="245" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B245" s="12"/>
+    </row>
+    <row r="246" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B246" s="12"/>
+    </row>
+    <row r="247" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B247" s="12"/>
+    </row>
+    <row r="248" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B248" s="12"/>
+    </row>
+    <row r="249" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B249" s="12"/>
+    </row>
+    <row r="250" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B250" s="12"/>
+    </row>
+    <row r="251" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B251" s="12"/>
+    </row>
+    <row r="252" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B252" s="12"/>
+    </row>
+    <row r="253" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B253" s="12"/>
+    </row>
+    <row r="254" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B254" s="12"/>
+    </row>
+    <row r="255" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B255" s="12"/>
+    </row>
+    <row r="256" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B256" s="12"/>
+    </row>
+    <row r="257" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B257" s="12"/>
+    </row>
+    <row r="258" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B258" s="12"/>
+    </row>
+    <row r="259" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B259" s="12"/>
+    </row>
+    <row r="260" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B260" s="12"/>
+    </row>
+    <row r="261" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B261" s="12"/>
+    </row>
+    <row r="262" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B262" s="12"/>
+    </row>
+    <row r="263" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B263" s="12"/>
+    </row>
+    <row r="264" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B264" s="12"/>
+    </row>
+    <row r="265" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B265" s="12"/>
+    </row>
+    <row r="266" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B266" s="12"/>
+    </row>
+    <row r="267" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B267" s="12"/>
+    </row>
+    <row r="268" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B268" s="12"/>
+    </row>
+    <row r="269" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B269" s="12"/>
+    </row>
+    <row r="270" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B270" s="12"/>
+    </row>
+    <row r="271" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B271" s="12"/>
+    </row>
+    <row r="272" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B272" s="12"/>
+    </row>
+    <row r="273" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B273" s="12"/>
+    </row>
+    <row r="274" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B274" s="12"/>
+    </row>
+    <row r="275" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B275" s="12"/>
+    </row>
+    <row r="276" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B276" s="12"/>
+    </row>
+    <row r="277" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B277" s="12"/>
+    </row>
+    <row r="278" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B278" s="12"/>
+    </row>
+    <row r="279" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B279" s="12"/>
+    </row>
+    <row r="280" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B280" s="12"/>
+    </row>
+    <row r="281" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B281" s="12"/>
+    </row>
+    <row r="282" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B282" s="12"/>
+    </row>
+    <row r="283" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B283" s="12"/>
+    </row>
+    <row r="284" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B284" s="12"/>
+    </row>
+    <row r="285" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B285" s="12"/>
+    </row>
+    <row r="286" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B286" s="12"/>
+    </row>
+    <row r="287" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B287" s="12"/>
+    </row>
+    <row r="288" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B288" s="12"/>
+    </row>
+    <row r="289" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B289" s="12"/>
+    </row>
+    <row r="290" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B290" s="12"/>
+    </row>
+    <row r="291" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B291" s="12"/>
+    </row>
+    <row r="292" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B292" s="12"/>
+    </row>
+    <row r="293" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B293" s="12"/>
+    </row>
+    <row r="294" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B294" s="12"/>
+    </row>
+    <row r="295" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B295" s="12"/>
+    </row>
+    <row r="296" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B296" s="12"/>
+    </row>
+    <row r="297" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B297" s="12"/>
+    </row>
+    <row r="298" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B298" s="12"/>
+    </row>
+    <row r="299" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B299" s="12"/>
+    </row>
+    <row r="300" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B300" s="12"/>
+    </row>
+    <row r="301" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B301" s="12"/>
+    </row>
+    <row r="302" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B302" s="12"/>
+    </row>
+    <row r="303" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B303" s="12"/>
+    </row>
+    <row r="304" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B304" s="12"/>
+    </row>
+    <row r="305" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B305" s="12"/>
+    </row>
+    <row r="306" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B306" s="12"/>
+    </row>
+    <row r="307" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B307" s="12"/>
+    </row>
+    <row r="308" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B308" s="12"/>
+    </row>
+    <row r="309" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B309" s="12"/>
+    </row>
+    <row r="310" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B310" s="12"/>
+    </row>
+    <row r="311" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B311" s="12"/>
+    </row>
+    <row r="312" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B312" s="12"/>
+    </row>
+    <row r="313" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B313" s="12"/>
+    </row>
+    <row r="314" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B314" s="12"/>
+    </row>
+    <row r="315" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B315" s="12"/>
+    </row>
+    <row r="316" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B316" s="12"/>
+    </row>
+    <row r="317" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B317" s="12"/>
+    </row>
+    <row r="318" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B318" s="12"/>
+    </row>
+    <row r="319" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B319" s="12"/>
+    </row>
+    <row r="320" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B320" s="12"/>
+    </row>
+    <row r="321" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B321" s="12"/>
+    </row>
+    <row r="322" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B322" s="12"/>
+    </row>
+    <row r="323" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B323" s="12"/>
+    </row>
+    <row r="324" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B324" s="12"/>
+    </row>
+    <row r="325" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B325" s="12"/>
+    </row>
+    <row r="326" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B326" s="12"/>
+    </row>
+    <row r="327" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B327" s="12"/>
+    </row>
+    <row r="328" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B328" s="12"/>
+    </row>
+    <row r="329" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B329" s="12"/>
+    </row>
+    <row r="330" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B330" s="12"/>
+    </row>
+    <row r="331" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B331" s="12"/>
+    </row>
+    <row r="332" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B332" s="12"/>
+    </row>
+    <row r="333" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B333" s="12"/>
+    </row>
+    <row r="334" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B334" s="12"/>
+    </row>
+    <row r="335" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B335" s="12"/>
+    </row>
+    <row r="336" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B336" s="12"/>
+    </row>
+    <row r="337" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B337" s="12"/>
+    </row>
+    <row r="338" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B338" s="12"/>
+    </row>
+    <row r="339" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B339" s="12"/>
+    </row>
+    <row r="340" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B340" s="12"/>
+    </row>
+    <row r="341" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B341" s="12"/>
+    </row>
+    <row r="342" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B342" s="12"/>
+    </row>
+    <row r="343" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B343" s="12"/>
+    </row>
+    <row r="344" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B344" s="12"/>
+    </row>
+    <row r="345" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B345" s="12"/>
+    </row>
+    <row r="346" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B346" s="12"/>
+    </row>
+    <row r="347" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B347" s="12"/>
+    </row>
+    <row r="348" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B348" s="12"/>
+    </row>
+    <row r="349" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B349" s="12"/>
+    </row>
+    <row r="350" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B350" s="12"/>
+    </row>
+    <row r="351" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B351" s="12"/>
+    </row>
+    <row r="352" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B352" s="12"/>
+    </row>
+    <row r="353" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B353" s="12"/>
+    </row>
+    <row r="354" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B354" s="12"/>
+    </row>
+    <row r="355" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B355" s="12"/>
+    </row>
+    <row r="356" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B356" s="12"/>
+    </row>
+    <row r="357" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B357" s="12"/>
+    </row>
+    <row r="358" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B358" s="12"/>
+    </row>
+    <row r="359" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B359" s="12"/>
+    </row>
+    <row r="360" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B360" s="12"/>
+    </row>
+    <row r="361" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B361" s="12"/>
+    </row>
+    <row r="362" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B362" s="12"/>
+    </row>
+    <row r="363" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B363" s="12"/>
+    </row>
+    <row r="364" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B364" s="12"/>
+    </row>
+    <row r="365" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B365" s="12"/>
+    </row>
+    <row r="366" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B366" s="12"/>
+    </row>
+    <row r="367" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B367" s="12"/>
+    </row>
+    <row r="368" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B368" s="12"/>
+    </row>
+    <row r="369" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B369" s="12"/>
+    </row>
+    <row r="370" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B370" s="12"/>
+    </row>
+    <row r="371" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B371" s="12"/>
+    </row>
+    <row r="372" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B372" s="12"/>
+    </row>
+    <row r="373" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B373" s="12"/>
+    </row>
+    <row r="374" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B374" s="12"/>
+    </row>
+    <row r="375" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B375" s="12"/>
+    </row>
+    <row r="376" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B376" s="12"/>
+    </row>
+    <row r="377" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B377" s="12"/>
+    </row>
+    <row r="378" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B378" s="12"/>
+    </row>
+    <row r="379" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B379" s="12"/>
+    </row>
+    <row r="380" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B380" s="12"/>
+    </row>
+    <row r="381" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B381" s="12"/>
+    </row>
+    <row r="382" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B382" s="12"/>
+    </row>
+    <row r="383" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B383" s="12"/>
+    </row>
+    <row r="384" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B384" s="12"/>
+    </row>
+    <row r="385" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B385" s="12"/>
+    </row>
+    <row r="386" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B386" s="12"/>
+    </row>
+    <row r="387" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B387" s="12"/>
+    </row>
+    <row r="388" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B388" s="12"/>
+    </row>
+    <row r="389" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B389" s="12"/>
+    </row>
+    <row r="390" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B390" s="12"/>
+    </row>
+    <row r="391" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B391" s="12"/>
+    </row>
+    <row r="392" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B392" s="12"/>
+    </row>
+    <row r="393" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B393" s="12"/>
+    </row>
+    <row r="394" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B394" s="12"/>
+    </row>
+    <row r="395" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B395" s="12"/>
+    </row>
+    <row r="396" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B396" s="12"/>
+    </row>
+    <row r="397" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B397" s="12"/>
+    </row>
+    <row r="398" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B398" s="12"/>
+    </row>
+    <row r="399" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B399" s="12"/>
+    </row>
+    <row r="400" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B400" s="12"/>
+    </row>
+    <row r="401" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B401" s="12"/>
+    </row>
+    <row r="402" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B402" s="12"/>
+    </row>
+    <row r="403" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B403" s="12"/>
+    </row>
+    <row r="404" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B404" s="12"/>
+    </row>
+    <row r="405" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B405" s="12"/>
+    </row>
+    <row r="406" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B406" s="12"/>
+    </row>
+    <row r="407" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B407" s="12"/>
+    </row>
+    <row r="408" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B408" s="12"/>
+    </row>
+    <row r="409" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B409" s="12"/>
+    </row>
+    <row r="410" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B410" s="12"/>
+    </row>
+    <row r="411" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B411" s="12"/>
+    </row>
+    <row r="412" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B412" s="12"/>
+    </row>
+    <row r="413" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B413" s="12"/>
+    </row>
+    <row r="414" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B414" s="12"/>
+    </row>
+    <row r="415" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B415" s="12"/>
+    </row>
+    <row r="416" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B416" s="12"/>
+    </row>
+    <row r="417" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B417" s="12"/>
+    </row>
+    <row r="418" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B418" s="12"/>
+    </row>
+    <row r="419" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B419" s="12"/>
+    </row>
+    <row r="420" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B420" s="12"/>
+    </row>
+    <row r="421" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B421" s="12"/>
+    </row>
+    <row r="422" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B422" s="12"/>
+    </row>
+    <row r="423" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B423" s="12"/>
+    </row>
+    <row r="424" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B424" s="12"/>
+    </row>
+    <row r="425" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B425" s="12"/>
+    </row>
+    <row r="426" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B426" s="12"/>
+    </row>
+    <row r="427" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B427" s="12"/>
+    </row>
+    <row r="428" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B428" s="12"/>
+    </row>
+    <row r="429" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B429" s="12"/>
+    </row>
+    <row r="430" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B430" s="12"/>
+    </row>
+    <row r="431" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B431" s="12"/>
+    </row>
+    <row r="432" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B432" s="12"/>
+    </row>
+    <row r="433" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B433" s="12"/>
+    </row>
+    <row r="434" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B434" s="12"/>
+    </row>
+    <row r="435" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B435" s="12"/>
+    </row>
+    <row r="436" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B436" s="12"/>
+    </row>
+    <row r="437" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B437" s="12"/>
+    </row>
+    <row r="438" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B438" s="12"/>
+    </row>
+    <row r="439" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B439" s="12"/>
+    </row>
+    <row r="440" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B440" s="12"/>
+    </row>
+    <row r="441" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B441" s="12"/>
+    </row>
+    <row r="442" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B442" s="12"/>
+    </row>
+    <row r="443" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B443" s="12"/>
+    </row>
+    <row r="444" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B444" s="12"/>
+    </row>
+    <row r="445" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B445" s="12"/>
+    </row>
+    <row r="446" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B446" s="12"/>
+    </row>
+    <row r="447" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B447" s="12"/>
+    </row>
+    <row r="448" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B448" s="12"/>
+    </row>
+    <row r="449" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B449" s="12"/>
+    </row>
+    <row r="450" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B450" s="12"/>
+    </row>
+    <row r="451" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B451" s="12"/>
+    </row>
+    <row r="452" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B452" s="12"/>
+    </row>
+    <row r="453" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B453" s="12"/>
+    </row>
+    <row r="454" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B454" s="12"/>
+    </row>
+    <row r="455" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B455" s="12"/>
+    </row>
+    <row r="456" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B456" s="12"/>
+    </row>
+    <row r="457" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B457" s="12"/>
+    </row>
+    <row r="458" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B458" s="12"/>
+    </row>
+    <row r="459" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B459" s="12"/>
+    </row>
+    <row r="460" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B460" s="12"/>
+    </row>
+    <row r="461" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B461" s="12"/>
+    </row>
+    <row r="462" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B462" s="12"/>
+    </row>
+    <row r="463" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B463" s="12"/>
+    </row>
+    <row r="464" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B464" s="12"/>
+    </row>
+    <row r="465" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B465" s="12"/>
+    </row>
+    <row r="466" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B466" s="12"/>
+    </row>
+    <row r="467" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B467" s="12"/>
+    </row>
+    <row r="468" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B468" s="12"/>
+    </row>
+    <row r="469" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B469" s="12"/>
+    </row>
+    <row r="470" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B470" s="12"/>
+    </row>
+    <row r="471" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B471" s="12"/>
+    </row>
+    <row r="472" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B472" s="12"/>
+    </row>
+    <row r="473" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B473" s="12"/>
+    </row>
+    <row r="474" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B474" s="12"/>
+    </row>
+    <row r="475" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B475" s="12"/>
+    </row>
+    <row r="476" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B476" s="12"/>
+    </row>
+    <row r="477" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B477" s="12"/>
+    </row>
+    <row r="478" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B478" s="12"/>
+    </row>
+    <row r="479" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B479" s="12"/>
+    </row>
+    <row r="480" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B480" s="12"/>
+    </row>
+    <row r="481" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B481" s="12"/>
+    </row>
+    <row r="482" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B482" s="12"/>
+    </row>
+    <row r="483" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B483" s="12"/>
+    </row>
+    <row r="484" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B484" s="12"/>
+    </row>
+    <row r="485" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B485" s="12"/>
+    </row>
+    <row r="486" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B486" s="12"/>
+    </row>
+    <row r="487" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B487" s="12"/>
+    </row>
+    <row r="488" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B488" s="12"/>
+    </row>
+    <row r="489" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B489" s="12"/>
+    </row>
+    <row r="490" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B490" s="12"/>
+    </row>
+    <row r="491" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B491" s="12"/>
+    </row>
+    <row r="492" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B492" s="12"/>
+    </row>
+    <row r="493" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B493" s="12"/>
+    </row>
+    <row r="494" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B494" s="12"/>
+    </row>
+    <row r="495" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B495" s="12"/>
+    </row>
+    <row r="496" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B496" s="12"/>
+    </row>
+    <row r="497" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B497" s="12"/>
+    </row>
+    <row r="498" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B498" s="12"/>
+    </row>
+    <row r="499" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B499" s="12"/>
+    </row>
+    <row r="500" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B500" s="12"/>
+    </row>
+    <row r="501" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B501" s="12"/>
+    </row>
+    <row r="502" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B502" s="12"/>
+    </row>
+    <row r="503" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B503" s="12"/>
+    </row>
+    <row r="504" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B504" s="12"/>
+    </row>
+    <row r="505" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B505" s="12"/>
+    </row>
+    <row r="506" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B506" s="12"/>
+    </row>
+    <row r="507" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B507" s="12"/>
+    </row>
+    <row r="508" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B508" s="12"/>
+    </row>
+    <row r="509" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B509" s="12"/>
+    </row>
+    <row r="510" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B510" s="12"/>
+    </row>
+    <row r="511" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B511" s="12"/>
+    </row>
+    <row r="512" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B512" s="12"/>
+    </row>
+    <row r="513" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B513" s="12"/>
+    </row>
+    <row r="514" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B514" s="12"/>
+    </row>
+    <row r="515" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B515" s="12"/>
+    </row>
+    <row r="516" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B516" s="12"/>
+    </row>
+    <row r="517" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B517" s="12"/>
+    </row>
+    <row r="518" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B518" s="12"/>
+    </row>
+    <row r="519" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B519" s="12"/>
+    </row>
+    <row r="520" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B520" s="12"/>
+    </row>
+    <row r="521" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B521" s="12"/>
+    </row>
+    <row r="522" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B522" s="12"/>
+    </row>
+    <row r="523" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B523" s="12"/>
+    </row>
+    <row r="524" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B524" s="12"/>
+    </row>
+    <row r="525" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B525" s="12"/>
+    </row>
+    <row r="526" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B526" s="12"/>
+    </row>
+    <row r="527" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B527" s="12"/>
+    </row>
+    <row r="528" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B528" s="12"/>
+    </row>
+    <row r="529" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B529" s="12"/>
+    </row>
+    <row r="530" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B530" s="12"/>
+    </row>
+    <row r="531" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B531" s="12"/>
+    </row>
+    <row r="532" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B532" s="12"/>
+    </row>
+    <row r="533" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B533" s="12"/>
+    </row>
+    <row r="534" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B534" s="12"/>
+    </row>
+    <row r="535" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B535" s="12"/>
+    </row>
+    <row r="536" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B536" s="12"/>
+    </row>
+    <row r="537" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B537" s="12"/>
+    </row>
+    <row r="538" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B538" s="12"/>
+    </row>
+    <row r="539" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B539" s="12"/>
+    </row>
+    <row r="540" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B540" s="12"/>
+    </row>
+    <row r="541" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B541" s="12"/>
+    </row>
+    <row r="542" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B542" s="12"/>
+    </row>
+    <row r="543" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B543" s="12"/>
+    </row>
+    <row r="544" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B544" s="12"/>
+    </row>
+    <row r="545" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B545" s="12"/>
+    </row>
+    <row r="546" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B546" s="12"/>
+    </row>
+    <row r="547" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B547" s="12"/>
+    </row>
+    <row r="548" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B548" s="12"/>
+    </row>
+    <row r="549" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B549" s="12"/>
+    </row>
+    <row r="550" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B550" s="12"/>
+    </row>
+    <row r="551" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B551" s="12"/>
+    </row>
+    <row r="552" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B552" s="12"/>
+    </row>
+    <row r="553" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B553" s="12"/>
+    </row>
+    <row r="554" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B554" s="12"/>
+    </row>
+    <row r="555" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B555" s="12"/>
+    </row>
+    <row r="556" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B556" s="12"/>
+    </row>
+    <row r="557" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B557" s="12"/>
+    </row>
+    <row r="558" spans="2:2" s="11" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B558" s="12"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/tagModules/TaggingRequest_2021.xlsx
+++ b/tagModules/TaggingRequest_2021.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xaxis\tagCalc\tagModules\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0776B78A-B0B1-4CDA-83B1-EADCCA62FF94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B51B0E-C68E-4762-B9A1-69AFF88EF4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Concept Tagging Request " sheetId="1" r:id="rId1"/>
     <sheet name="Tagging Request" sheetId="2" r:id="rId2"/>
     <sheet name="Funnel" sheetId="7" r:id="rId3"/>
     <sheet name="Sections" sheetId="4" r:id="rId4"/>
-    <sheet name="Listas" sheetId="8" state="hidden" r:id="rId5"/>
+    <sheet name="Listas" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Registros" localSheetId="2">Funnel!$C$17</definedName>
@@ -167,7 +167,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="48">
   <si>
     <t>Agencia</t>
   </si>
@@ -285,6 +285,33 @@
   <si>
     <t>address</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Page View</t>
+  </si>
+  <si>
+    <t>Scroll</t>
+  </si>
+  <si>
+    <t>Timer</t>
+  </si>
+  <si>
+    <t>Triggers</t>
+  </si>
+  <si>
+    <t>SI_NO</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>Event</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
 </sst>
 </file>
 
@@ -367,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -618,11 +645,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -665,21 +731,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -695,9 +746,32 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -716,12 +790,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2603,8 +2678,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A11:AMI310"/>
   <sheetViews>
-    <sheetView topLeftCell="G19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView topLeftCell="A22" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2711,68 +2786,68 @@
     </row>
     <row r="27" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="28" spans="2:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="23"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="20" t="s">
+      <c r="K29" s="26"/>
+      <c r="L29" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20" t="s">
+      <c r="M29" s="27"/>
+      <c r="N29" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="O29" s="20"/>
+      <c r="O29" s="27"/>
     </row>
     <row r="30" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
       <c r="J30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L30" s="20" t="s">
+      <c r="L30" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="M30" s="21"/>
+      <c r="M30" s="28"/>
       <c r="N30" s="3" t="s">
         <v>28</v>
       </c>
@@ -2781,7 +2856,7 @@
       </c>
     </row>
     <row r="31" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="4"/>
@@ -2793,13 +2868,13 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="19"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="24"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="25"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -2809,13 +2884,13 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="19"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="24"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="26"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -2825,13 +2900,13 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="19"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="24"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="4"/>
@@ -2843,13 +2918,13 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="19"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="24"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="27"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2859,13 +2934,13 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="19"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="24"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="27"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2875,13 +2950,13 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="19"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="24"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="27"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -2891,13 +2966,13 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="19"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="24"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
     </row>
     <row r="38" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="27"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -2907,13 +2982,13 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="19"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="24"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
     </row>
     <row r="39" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="4"/>
@@ -2925,13 +3000,13 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="19"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="24"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="27"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -2941,13 +3016,13 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="19"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="24"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="27"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -2957,13 +3032,13 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="19"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="24"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="25"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -2973,13 +3048,13 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="19"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="24"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="25"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -2989,8 +3064,8 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="19"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="24"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
     </row>
@@ -3265,6 +3340,19 @@
     <row r="310" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="B31:B33"/>
     <mergeCell ref="B34:B38"/>
@@ -3281,19 +3369,6 @@
     <mergeCell ref="G29:G30"/>
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G31:G43" xr:uid="{159AEBD0-1FCE-4A68-92F1-36C3B0B6D6AE}">
@@ -3311,7 +3386,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B8E1451-794D-4AAA-996A-CBECC3B02661}">
   <dimension ref="A11:AMI310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+    <sheetView topLeftCell="A17" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
       <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
@@ -3419,68 +3494,68 @@
     </row>
     <row r="27" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="23"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="20" t="s">
+      <c r="K29" s="26"/>
+      <c r="L29" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20" t="s">
+      <c r="M29" s="27"/>
+      <c r="N29" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="O29" s="20"/>
+      <c r="O29" s="27"/>
     </row>
     <row r="30" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
       <c r="J30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L30" s="20" t="s">
+      <c r="L30" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="M30" s="21"/>
+      <c r="M30" s="28"/>
       <c r="N30" s="3" t="s">
         <v>28</v>
       </c>
@@ -3489,7 +3564,7 @@
       </c>
     </row>
     <row r="31" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="19" t="s">
         <v>31</v>
       </c>
       <c r="C31" s="4"/>
@@ -3501,13 +3576,13 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="19"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="24"/>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
     </row>
     <row r="32" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="25"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
@@ -3517,13 +3592,13 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="4"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="19"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="24"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
     </row>
     <row r="33" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="26"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -3533,13 +3608,13 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="4"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="19"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="24"/>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
     </row>
     <row r="34" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="19" t="s">
         <v>32</v>
       </c>
       <c r="C34" s="4"/>
@@ -3551,13 +3626,13 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="19"/>
+      <c r="L34" s="23"/>
+      <c r="M34" s="24"/>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
     </row>
     <row r="35" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="27"/>
+      <c r="B35" s="22"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -3567,13 +3642,13 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="4"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="19"/>
+      <c r="L35" s="23"/>
+      <c r="M35" s="24"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
     </row>
     <row r="36" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="27"/>
+      <c r="B36" s="22"/>
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -3583,13 +3658,13 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="4"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="19"/>
+      <c r="L36" s="23"/>
+      <c r="M36" s="24"/>
       <c r="N36" s="4"/>
       <c r="O36" s="4"/>
     </row>
     <row r="37" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="27"/>
+      <c r="B37" s="22"/>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="4"/>
@@ -3599,13 +3674,13 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="4"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="19"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="24"/>
       <c r="N37" s="4"/>
       <c r="O37" s="4"/>
     </row>
     <row r="38" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="27"/>
+      <c r="B38" s="22"/>
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -3615,13 +3690,13 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="4"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="19"/>
+      <c r="L38" s="23"/>
+      <c r="M38" s="24"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
     </row>
     <row r="39" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="24" t="s">
+      <c r="B39" s="19" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="4"/>
@@ -3633,13 +3708,13 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="19"/>
+      <c r="L39" s="23"/>
+      <c r="M39" s="24"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
     </row>
     <row r="40" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="27"/>
+      <c r="B40" s="22"/>
       <c r="C40" s="4"/>
       <c r="D40" s="4"/>
       <c r="E40" s="4"/>
@@ -3649,13 +3724,13 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="19"/>
+      <c r="L40" s="23"/>
+      <c r="M40" s="24"/>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
     </row>
     <row r="41" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="27"/>
+      <c r="B41" s="22"/>
       <c r="C41" s="4"/>
       <c r="D41" s="4"/>
       <c r="E41" s="4"/>
@@ -3665,13 +3740,13 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="19"/>
+      <c r="L41" s="23"/>
+      <c r="M41" s="24"/>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
     </row>
     <row r="42" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="25"/>
+      <c r="B42" s="20"/>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="4"/>
@@ -3681,13 +3756,13 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="4"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="19"/>
+      <c r="L42" s="23"/>
+      <c r="M42" s="24"/>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
     </row>
     <row r="43" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="25"/>
+      <c r="B43" s="20"/>
       <c r="C43" s="4"/>
       <c r="D43" s="4"/>
       <c r="E43" s="4"/>
@@ -3697,8 +3772,8 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="4"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="19"/>
+      <c r="L43" s="23"/>
+      <c r="M43" s="24"/>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
     </row>
@@ -3973,6 +4048,25 @@
     <row r="310" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B39:B43"/>
+    <mergeCell ref="L39:M39"/>
+    <mergeCell ref="L43:M43"/>
+    <mergeCell ref="L40:M40"/>
+    <mergeCell ref="L41:M41"/>
+    <mergeCell ref="L42:M42"/>
+    <mergeCell ref="B34:B38"/>
+    <mergeCell ref="L34:M34"/>
+    <mergeCell ref="L35:M35"/>
+    <mergeCell ref="L36:M36"/>
+    <mergeCell ref="L37:M37"/>
+    <mergeCell ref="L38:M38"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="B31:B33"/>
+    <mergeCell ref="L31:M31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="L33:M33"/>
     <mergeCell ref="J28:K28"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
@@ -3983,25 +4077,6 @@
     <mergeCell ref="H29:H30"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="J29:K29"/>
-    <mergeCell ref="L29:M29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="B31:B33"/>
-    <mergeCell ref="L31:M31"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="L33:M33"/>
-    <mergeCell ref="B34:B38"/>
-    <mergeCell ref="L34:M34"/>
-    <mergeCell ref="L35:M35"/>
-    <mergeCell ref="L36:M36"/>
-    <mergeCell ref="L37:M37"/>
-    <mergeCell ref="L38:M38"/>
-    <mergeCell ref="B39:B43"/>
-    <mergeCell ref="L39:M39"/>
-    <mergeCell ref="L43:M43"/>
-    <mergeCell ref="L40:M40"/>
-    <mergeCell ref="L41:M41"/>
-    <mergeCell ref="L42:M42"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G31:G43" xr:uid="{7B368695-474D-4373-B4AA-85B1667124A2}">
@@ -4127,68 +4202,68 @@
     </row>
     <row r="27" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="28" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="J28" s="23" t="s">
+      <c r="J28" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="K28" s="23"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="28" t="s">
+      <c r="B29" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="28" t="s">
+      <c r="E29" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="F29" s="28" t="s">
+      <c r="F29" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="G29" s="28" t="s">
+      <c r="G29" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="H29" s="28" t="s">
+      <c r="H29" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="I29" s="28" t="s">
+      <c r="I29" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="20" t="s">
+      <c r="K29" s="26"/>
+      <c r="L29" s="27" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="20"/>
-      <c r="N29" s="20" t="s">
+      <c r="M29" s="27"/>
+      <c r="N29" s="27" t="s">
         <v>30</v>
       </c>
-      <c r="O29" s="20"/>
+      <c r="O29" s="27"/>
     </row>
     <row r="30" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="28"/>
-      <c r="I30" s="28"/>
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="25"/>
+      <c r="I30" s="25"/>
       <c r="J30" s="3" t="s">
         <v>28</v>
       </c>
       <c r="K30" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="L30" s="20" t="s">
+      <c r="L30" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="M30" s="21"/>
+      <c r="M30" s="28"/>
       <c r="N30" s="3" t="s">
         <v>28</v>
       </c>
@@ -4197,294 +4272,294 @@
       </c>
     </row>
     <row r="31" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="24" t="s">
+      <c r="B31" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="4"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="29"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="35"/>
-      <c r="O31" s="35"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="35"/>
+      <c r="M31" s="36"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="30"/>
     </row>
     <row r="32" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="40"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="38"/>
+      <c r="B32" s="29"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="4"/>
-      <c r="G32" s="38"/>
-      <c r="H32" s="38"/>
-      <c r="I32" s="38"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="31"/>
-      <c r="M32" s="32"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="38"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="31"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="38"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="31"/>
     </row>
     <row r="33" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="40"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="38"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="31"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="4"/>
-      <c r="G33" s="38"/>
-      <c r="H33" s="38"/>
-      <c r="I33" s="38"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="31"/>
-      <c r="M33" s="32"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="38"/>
+      <c r="G33" s="31"/>
+      <c r="H33" s="31"/>
+      <c r="I33" s="31"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="31"/>
+      <c r="L33" s="37"/>
+      <c r="M33" s="38"/>
+      <c r="N33" s="33"/>
+      <c r="O33" s="31"/>
     </row>
     <row r="34" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="40"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="38"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="4"/>
-      <c r="G34" s="38"/>
-      <c r="H34" s="38"/>
-      <c r="I34" s="38"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="31"/>
-      <c r="M34" s="32"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="38"/>
+      <c r="G34" s="31"/>
+      <c r="H34" s="31"/>
+      <c r="I34" s="31"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="31"/>
+      <c r="L34" s="37"/>
+      <c r="M34" s="38"/>
+      <c r="N34" s="33"/>
+      <c r="O34" s="31"/>
     </row>
     <row r="35" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="40"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31"/>
+      <c r="E35" s="31"/>
       <c r="F35" s="4"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="31"/>
-      <c r="M35" s="32"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="38"/>
+      <c r="G35" s="31"/>
+      <c r="H35" s="31"/>
+      <c r="I35" s="31"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="31"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="31"/>
     </row>
     <row r="36" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="40"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38"/>
+      <c r="B36" s="29"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
       <c r="F36" s="4"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="31"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="38"/>
+      <c r="G36" s="31"/>
+      <c r="H36" s="31"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="31"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="38"/>
+      <c r="N36" s="33"/>
+      <c r="O36" s="31"/>
     </row>
     <row r="37" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="40"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="38"/>
+      <c r="B37" s="29"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="31"/>
+      <c r="E37" s="31"/>
       <c r="F37" s="4"/>
-      <c r="G37" s="38"/>
-      <c r="H37" s="38"/>
-      <c r="I37" s="38"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="31"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="38"/>
+      <c r="G37" s="31"/>
+      <c r="H37" s="31"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="38"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="31"/>
     </row>
     <row r="38" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B38" s="40"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="4"/>
-      <c r="G38" s="38"/>
-      <c r="H38" s="38"/>
-      <c r="I38" s="38"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="31"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="38"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="31"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="31"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="38"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="31"/>
     </row>
     <row r="39" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B39" s="40"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="38"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="31"/>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
       <c r="F39" s="4"/>
-      <c r="G39" s="38"/>
-      <c r="H39" s="38"/>
-      <c r="I39" s="38"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="38"/>
-      <c r="L39" s="31"/>
-      <c r="M39" s="32"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="38"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="31"/>
+      <c r="J39" s="33"/>
+      <c r="K39" s="31"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="38"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="31"/>
     </row>
     <row r="40" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B40" s="40"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="38"/>
+      <c r="B40" s="29"/>
+      <c r="C40" s="31"/>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
       <c r="F40" s="4"/>
-      <c r="G40" s="38"/>
-      <c r="H40" s="38"/>
-      <c r="I40" s="38"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="38"/>
-      <c r="L40" s="31"/>
-      <c r="M40" s="32"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="38"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="31"/>
+      <c r="J40" s="33"/>
+      <c r="K40" s="31"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="38"/>
+      <c r="N40" s="33"/>
+      <c r="O40" s="31"/>
     </row>
     <row r="41" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B41" s="40"/>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
+      <c r="B41" s="29"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
       <c r="F41" s="4"/>
-      <c r="G41" s="38"/>
-      <c r="H41" s="38"/>
-      <c r="I41" s="38"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="38"/>
-      <c r="L41" s="31"/>
-      <c r="M41" s="32"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="38"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="31"/>
+      <c r="J41" s="33"/>
+      <c r="K41" s="31"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="38"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="31"/>
     </row>
     <row r="42" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B42" s="40"/>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="31"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
       <c r="F42" s="4"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
-      <c r="I42" s="38"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="38"/>
-      <c r="L42" s="31"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="38"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="33"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="38"/>
+      <c r="N42" s="33"/>
+      <c r="O42" s="31"/>
     </row>
     <row r="43" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B43" s="40"/>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="38"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="31"/>
+      <c r="D43" s="31"/>
+      <c r="E43" s="31"/>
       <c r="F43" s="4"/>
-      <c r="G43" s="38"/>
-      <c r="H43" s="38"/>
-      <c r="I43" s="38"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="38"/>
-      <c r="L43" s="31"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="38"/>
+      <c r="G43" s="31"/>
+      <c r="H43" s="31"/>
+      <c r="I43" s="31"/>
+      <c r="J43" s="33"/>
+      <c r="K43" s="31"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="38"/>
+      <c r="N43" s="33"/>
+      <c r="O43" s="31"/>
     </row>
     <row r="44" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B44" s="40"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
+      <c r="B44" s="29"/>
+      <c r="C44" s="31"/>
+      <c r="D44" s="31"/>
+      <c r="E44" s="31"/>
       <c r="F44" s="4"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="38"/>
-      <c r="I44" s="38"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="38"/>
-      <c r="L44" s="31"/>
-      <c r="M44" s="32"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="38"/>
+      <c r="G44" s="31"/>
+      <c r="H44" s="31"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="33"/>
+      <c r="K44" s="31"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="38"/>
+      <c r="N44" s="33"/>
+      <c r="O44" s="31"/>
     </row>
     <row r="45" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B45" s="40"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
+      <c r="B45" s="29"/>
+      <c r="C45" s="31"/>
+      <c r="D45" s="31"/>
+      <c r="E45" s="31"/>
       <c r="F45" s="4"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="38"/>
-      <c r="L45" s="31"/>
-      <c r="M45" s="32"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="38"/>
+      <c r="G45" s="31"/>
+      <c r="H45" s="31"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="33"/>
+      <c r="K45" s="31"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="38"/>
+      <c r="N45" s="33"/>
+      <c r="O45" s="31"/>
     </row>
     <row r="46" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B46" s="40"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="38"/>
-      <c r="E46" s="38"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
       <c r="F46" s="4"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="38"/>
-      <c r="I46" s="38"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="38"/>
-      <c r="L46" s="31"/>
-      <c r="M46" s="32"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="38"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="31"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="38"/>
+      <c r="N46" s="33"/>
+      <c r="O46" s="31"/>
     </row>
     <row r="47" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B47" s="40"/>
-      <c r="C47" s="38"/>
-      <c r="D47" s="38"/>
-      <c r="E47" s="38"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="4"/>
-      <c r="G47" s="38"/>
-      <c r="H47" s="38"/>
-      <c r="I47" s="38"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="38"/>
-      <c r="L47" s="31"/>
-      <c r="M47" s="32"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="38"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="33"/>
+      <c r="K47" s="31"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="38"/>
+      <c r="N47" s="33"/>
+      <c r="O47" s="31"/>
     </row>
     <row r="48" spans="2:15" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B48" s="40"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
+      <c r="B48" s="29"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="E48" s="32"/>
       <c r="F48" s="4"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="37"/>
-      <c r="K48" s="39"/>
-      <c r="L48" s="33"/>
-      <c r="M48" s="34"/>
-      <c r="N48" s="37"/>
-      <c r="O48" s="39"/>
+      <c r="G48" s="32"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="32"/>
+      <c r="J48" s="34"/>
+      <c r="K48" s="32"/>
+      <c r="L48" s="39"/>
+      <c r="M48" s="40"/>
+      <c r="N48" s="34"/>
+      <c r="O48" s="32"/>
     </row>
     <row r="49" spans="6:6" ht="13.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="F49" s="8"/>
@@ -4757,6 +4832,21 @@
     <row r="315" ht="13.95" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="N29:O29"/>
+    <mergeCell ref="L30:M30"/>
+    <mergeCell ref="L31:M48"/>
+    <mergeCell ref="N31:N48"/>
+    <mergeCell ref="O31:O48"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:K29"/>
     <mergeCell ref="B31:B48"/>
     <mergeCell ref="C31:C48"/>
     <mergeCell ref="D31:D48"/>
@@ -4767,21 +4857,6 @@
     <mergeCell ref="J31:J48"/>
     <mergeCell ref="K31:K48"/>
     <mergeCell ref="H31:H48"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="N29:O29"/>
-    <mergeCell ref="L30:M30"/>
-    <mergeCell ref="L31:M48"/>
-    <mergeCell ref="N31:N48"/>
-    <mergeCell ref="O31:O48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4794,14 +4869,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C476D17-5786-4464-A0F3-8A2E9CCCA677}">
   <dimension ref="A1:CD558"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="11"/>
-    <col min="2" max="2" width="12.77734375" style="9" customWidth="1"/>
+    <col min="2" max="2" width="15.33203125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
     <col min="21" max="82" width="8.88671875" style="11"/>
   </cols>
   <sheetData>
@@ -4809,13 +4886,19 @@
       <c r="B1" s="12"/>
     </row>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="C2" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="13"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="10"/>
@@ -4832,18 +4915,39 @@
       <c r="T2" s="10"/>
     </row>
     <row r="3" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="42" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="4" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="C3" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="42" t="s">
         <v>37</v>
       </c>
+      <c r="C4" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="5" spans="2:20" s="11" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="43" t="s">
         <v>38</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:20" s="11" customFormat="1" x14ac:dyDescent="0.3">
